--- a/Cola_working_data.xlsx
+++ b/Cola_working_data.xlsx
@@ -1,21 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunamniroula/Developer/GitHub/cocacola-data-analysis-excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F48426-FDEF-CC47-A855-B0641EECE699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="COCA COLA CO" sheetId="1" r:id="rId4"/>
+    <sheet name="COCA COLA CO" sheetId="1" r:id="rId1"/>
+    <sheet name="Working Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="P&amp;LS" sheetId="5" r:id="rId3"/>
+    <sheet name="BS" sheetId="6" r:id="rId4"/>
+    <sheet name="CFS" sheetId="7" r:id="rId5"/>
+    <sheet name="Pivot Tables" sheetId="3" r:id="rId6"/>
+    <sheet name="Dashboard" sheetId="4" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="121">
   <si>
     <t>Data provided by SimFin</t>
   </si>
@@ -327,60 +351,103 @@
   </si>
   <si>
     <t>Net increase (decrease) during the year</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Cost of Goods</t>
+  </si>
+  <si>
+    <t>Administrative Expenses</t>
+  </si>
+  <si>
+    <t>Operating Charges</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Equity Income(Loss)</t>
+  </si>
+  <si>
+    <t>Other Income (Loss)</t>
+  </si>
+  <si>
+    <t>Income Tax</t>
+  </si>
+  <si>
+    <t>Operating</t>
+  </si>
+  <si>
+    <t>minority shareholders money</t>
+  </si>
+  <si>
+    <t>profit or loss for closed businesses</t>
+  </si>
+  <si>
+    <t>current businesses profit and not old or closed ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Profit </t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -391,43 +458,70 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="3" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="3" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -717,43 +811,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L104" sqref="L104"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="true" style="0"/>
-    <col min="2" max="2" width="134.395752" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="134.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -788,7 +870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -823,7 +905,7 @@
         <v>31856</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -858,7 +940,7 @@
         <v>11770</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
@@ -893,7 +975,7 @@
         <v>20086</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -928,7 +1010,7 @@
         <v>10307</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -963,7 +1045,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -998,7 +1080,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1033,7 +1115,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -1068,7 +1150,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -1103,7 +1185,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -1138,7 +1220,7 @@
         <v>-1121</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1173,7 +1255,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -1208,7 +1290,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
@@ -1243,7 +1325,7 @@
         <v>6476</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -1278,16 +1360,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
       <c r="I19" s="3">
         <v>7366</v>
       </c>
@@ -1301,16 +1377,10 @@
         <v>6727</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1324,7 +1394,7 @@
         <v>-251</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
@@ -1359,12 +1429,12 @@
         <v>6434</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>2</v>
       </c>
@@ -1399,22 +1469,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -1449,7 +1509,7 @@
         <v>8926</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>33</v>
       </c>
@@ -1484,7 +1544,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>34</v>
       </c>
@@ -1519,7 +1579,7 @@
         <v>10951</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -1554,7 +1614,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>36</v>
       </c>
@@ -1589,7 +1649,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>37</v>
       </c>
@@ -1624,7 +1684,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>38</v>
       </c>
@@ -1659,12 +1719,10 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C33"/>
-      <c r="D33"/>
       <c r="E33" s="3">
         <v>0</v>
       </c>
@@ -1690,17 +1748,10 @@
         <v>6546</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
       <c r="J34" s="3">
         <v>2797</v>
       </c>
@@ -1711,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>40</v>
       </c>
@@ -1746,7 +1797,7 @@
         <v>30634</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>41</v>
       </c>
@@ -1781,7 +1832,7 @@
         <v>19407</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>42</v>
       </c>
@@ -1816,7 +1867,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>43</v>
       </c>
@@ -1851,7 +1902,7 @@
         <v>4139</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>44</v>
       </c>
@@ -1886,18 +1937,10 @@
         <v>8232</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>45</v>
       </c>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
       <c r="K40" s="3">
         <v>330</v>
       </c>
@@ -1905,7 +1948,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>46</v>
       </c>
@@ -1940,7 +1983,7 @@
         <v>6682</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>47</v>
       </c>
@@ -1975,7 +2018,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>48</v>
       </c>
@@ -2010,7 +2053,7 @@
         <v>10263</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>49</v>
       </c>
@@ -2045,7 +2088,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>50</v>
       </c>
@@ -2080,22 +2123,12 @@
         <v>83216</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>51</v>
       </c>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-    </row>
-    <row r="47" spans="1:12">
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>52</v>
       </c>
@@ -2130,7 +2163,7 @@
         <v>8932</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>53</v>
       </c>
@@ -2165,7 +2198,7 @@
         <v>13194</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>54</v>
       </c>
@@ -2200,7 +2233,7 @@
         <v>4997</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>55</v>
       </c>
@@ -2235,12 +2268,10 @@
         <v>378</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>56</v>
       </c>
-      <c r="C51"/>
-      <c r="D51"/>
       <c r="E51" s="3">
         <v>0</v>
       </c>
@@ -2266,17 +2297,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>57</v>
       </c>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
       <c r="J52" s="3">
         <v>0</v>
       </c>
@@ -2287,7 +2311,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>58</v>
       </c>
@@ -2322,7 +2346,7 @@
         <v>29223</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>59</v>
       </c>
@@ -2357,7 +2381,7 @@
         <v>25364</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>60</v>
       </c>
@@ -2392,7 +2416,7 @@
         <v>7638</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>61</v>
       </c>
@@ -2427,7 +2451,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>62</v>
       </c>
@@ -2462,7 +2486,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>63</v>
       </c>
@@ -2497,7 +2521,7 @@
         <v>16520</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>64</v>
       </c>
@@ -2532,7 +2556,7 @@
         <v>63234</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>65</v>
       </c>
@@ -2567,7 +2591,7 @@
         <v>-12814</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>66</v>
       </c>
@@ -2602,7 +2626,7 @@
         <v>-51719</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>67</v>
       </c>
@@ -2637,7 +2661,7 @@
         <v>16981</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>68</v>
       </c>
@@ -2672,7 +2696,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>69</v>
       </c>
@@ -2707,7 +2731,7 @@
         <v>19058</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>70</v>
       </c>
@@ -2742,12 +2766,12 @@
         <v>83216</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>2</v>
       </c>
@@ -2782,7 +2806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>25</v>
       </c>
@@ -2817,7 +2841,7 @@
         <v>6476</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>72</v>
       </c>
@@ -2852,16 +2876,10 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>73</v>
       </c>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
       <c r="I71" s="3">
         <v>0</v>
       </c>
@@ -2875,16 +2893,10 @@
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>27</v>
       </c>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
       <c r="I72" s="3">
         <v>7366</v>
       </c>
@@ -2898,7 +2910,7 @@
         <v>6727</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>74</v>
       </c>
@@ -2933,7 +2945,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>61</v>
       </c>
@@ -2968,7 +2980,7 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>75</v>
       </c>
@@ -3003,7 +3015,7 @@
         <v>-457</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>76</v>
       </c>
@@ -3038,7 +3050,7 @@
         <v>-38</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>77</v>
       </c>
@@ -3073,7 +3085,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>78</v>
       </c>
@@ -3083,16 +3095,8 @@
       <c r="D78" s="3">
         <v>-4713</v>
       </c>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-    </row>
-    <row r="79" spans="1:12">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>17</v>
       </c>
@@ -3127,7 +3131,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>79</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>80</v>
       </c>
@@ -3197,7 +3201,7 @@
         <v>-1202</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
         <v>81</v>
       </c>
@@ -3232,7 +3236,7 @@
         <v>7320</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>82</v>
       </c>
@@ -3242,16 +3246,8 @@
       <c r="D83" s="3">
         <v>-4579</v>
       </c>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
-    </row>
-    <row r="84" spans="1:12">
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>83</v>
       </c>
@@ -3286,7 +3282,7 @@
         <v>-7789</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>84</v>
       </c>
@@ -3321,7 +3317,7 @@
         <v>14977</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>85</v>
       </c>
@@ -3356,7 +3352,7 @@
         <v>-1040</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>86</v>
       </c>
@@ -3391,7 +3387,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>87</v>
       </c>
@@ -3426,7 +3422,7 @@
         <v>-1347</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>88</v>
       </c>
@@ -3461,7 +3457,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>89</v>
       </c>
@@ -3496,7 +3492,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
         <v>90</v>
       </c>
@@ -3531,7 +3527,7 @@
         <v>6348</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>91</v>
       </c>
@@ -3566,7 +3562,7 @@
         <v>27339</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>92</v>
       </c>
@@ -3601,7 +3597,7 @@
         <v>-30568</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>93</v>
       </c>
@@ -3636,7 +3632,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>94</v>
       </c>
@@ -3671,7 +3667,7 @@
         <v>-1912</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>95</v>
       </c>
@@ -3706,7 +3702,7 @@
         <v>-6644</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>96</v>
       </c>
@@ -3741,7 +3737,7 @@
         <v>-243</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
         <v>97</v>
       </c>
@@ -3776,16 +3772,10 @@
         <v>-10552</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>98</v>
       </c>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
       <c r="I99" s="3">
         <v>0</v>
       </c>
@@ -3799,7 +3789,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>99</v>
       </c>
@@ -3834,16 +3824,10 @@
         <v>-262</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>100</v>
       </c>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -3857,16 +3841,10 @@
         <v>-421</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>101</v>
       </c>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -3880,16 +3858,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>102</v>
       </c>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
       <c r="I103" s="3">
         <v>0</v>
       </c>
@@ -3903,7 +3875,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
         <v>103</v>
       </c>
@@ -3939,20 +3911,3744 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId_hyperlink_1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25532152-7825-904D-94B7-E11618EB0626}">
+  <dimension ref="A1:L105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="134.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>30990</v>
+      </c>
+      <c r="D5" s="3">
+        <v>35119</v>
+      </c>
+      <c r="E5" s="3">
+        <v>46542</v>
+      </c>
+      <c r="F5" s="3">
+        <v>48017</v>
+      </c>
+      <c r="G5" s="3">
+        <v>46854</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45998</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44294</v>
+      </c>
+      <c r="J5" s="3">
+        <v>41863</v>
+      </c>
+      <c r="K5" s="3">
+        <v>35410</v>
+      </c>
+      <c r="L5" s="3">
+        <v>31856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>11088</v>
+      </c>
+      <c r="D6" s="3">
+        <v>12693</v>
+      </c>
+      <c r="E6" s="3">
+        <v>18215</v>
+      </c>
+      <c r="F6" s="3">
+        <v>19053</v>
+      </c>
+      <c r="G6" s="3">
+        <v>18421</v>
+      </c>
+      <c r="H6" s="3">
+        <v>17889</v>
+      </c>
+      <c r="I6" s="3">
+        <v>17482</v>
+      </c>
+      <c r="J6" s="3">
+        <v>16465</v>
+      </c>
+      <c r="K6" s="3">
+        <v>13255</v>
+      </c>
+      <c r="L6" s="3">
+        <v>11770</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>19902</v>
+      </c>
+      <c r="D7" s="5">
+        <v>22426</v>
+      </c>
+      <c r="E7" s="5">
+        <v>28327</v>
+      </c>
+      <c r="F7" s="5">
+        <v>28964</v>
+      </c>
+      <c r="G7" s="5">
+        <v>28433</v>
+      </c>
+      <c r="H7" s="5">
+        <v>28109</v>
+      </c>
+      <c r="I7" s="5">
+        <v>26812</v>
+      </c>
+      <c r="J7" s="5">
+        <v>25398</v>
+      </c>
+      <c r="K7" s="5">
+        <v>22155</v>
+      </c>
+      <c r="L7" s="5">
+        <v>20086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3">
+        <v>11358</v>
+      </c>
+      <c r="D9" s="3">
+        <v>13194</v>
+      </c>
+      <c r="E9" s="3">
+        <v>17422</v>
+      </c>
+      <c r="F9" s="3">
+        <v>17738</v>
+      </c>
+      <c r="G9" s="3">
+        <v>17310</v>
+      </c>
+      <c r="H9" s="3">
+        <v>17218</v>
+      </c>
+      <c r="I9" s="3">
+        <v>16427</v>
+      </c>
+      <c r="J9" s="3">
+        <v>15262</v>
+      </c>
+      <c r="K9" s="3">
+        <v>12654</v>
+      </c>
+      <c r="L9" s="3">
+        <v>10307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3">
+        <v>313</v>
+      </c>
+      <c r="D10" s="3">
+        <v>819</v>
+      </c>
+      <c r="E10" s="3">
+        <v>732</v>
+      </c>
+      <c r="F10" s="3">
+        <v>447</v>
+      </c>
+      <c r="G10" s="3">
+        <v>895</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1183</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1657</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1510</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1902</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8231</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8413</v>
+      </c>
+      <c r="E11" s="5">
+        <v>10173</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10779</v>
+      </c>
+      <c r="G11" s="5">
+        <v>10228</v>
+      </c>
+      <c r="H11" s="5">
+        <v>9708</v>
+      </c>
+      <c r="I11" s="5">
+        <v>8728</v>
+      </c>
+      <c r="J11" s="5">
+        <v>8626</v>
+      </c>
+      <c r="K11" s="5">
+        <v>7599</v>
+      </c>
+      <c r="L11" s="5">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3">
+        <v>249</v>
+      </c>
+      <c r="D12" s="3">
+        <v>317</v>
+      </c>
+      <c r="E12" s="3">
+        <v>483</v>
+      </c>
+      <c r="F12" s="3">
+        <v>471</v>
+      </c>
+      <c r="G12" s="3">
+        <v>534</v>
+      </c>
+      <c r="H12" s="3">
+        <v>594</v>
+      </c>
+      <c r="I12" s="3">
+        <v>613</v>
+      </c>
+      <c r="J12" s="3">
+        <v>642</v>
+      </c>
+      <c r="K12" s="3">
+        <v>677</v>
+      </c>
+      <c r="L12" s="3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
+        <v>355</v>
+      </c>
+      <c r="D13" s="3">
+        <v>733</v>
+      </c>
+      <c r="E13" s="3">
+        <v>417</v>
+      </c>
+      <c r="F13" s="3">
+        <v>397</v>
+      </c>
+      <c r="G13" s="3">
+        <v>463</v>
+      </c>
+      <c r="H13" s="3">
+        <v>483</v>
+      </c>
+      <c r="I13" s="3">
+        <v>856</v>
+      </c>
+      <c r="J13" s="3">
+        <v>733</v>
+      </c>
+      <c r="K13" s="3">
+        <v>841</v>
+      </c>
+      <c r="L13" s="3">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3">
+        <v>781</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1025</v>
+      </c>
+      <c r="E14" s="3">
+        <v>690</v>
+      </c>
+      <c r="F14" s="3">
+        <v>819</v>
+      </c>
+      <c r="G14" s="3">
+        <v>602</v>
+      </c>
+      <c r="H14" s="3">
+        <v>769</v>
+      </c>
+      <c r="I14" s="3">
+        <v>489</v>
+      </c>
+      <c r="J14" s="3">
+        <v>835</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1071</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5185</v>
+      </c>
+      <c r="E15" s="3">
+        <v>529</v>
+      </c>
+      <c r="F15" s="3">
+        <v>137</v>
+      </c>
+      <c r="G15" s="3">
+        <v>576</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-1263</v>
+      </c>
+      <c r="I15" s="3">
+        <v>631</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-1234</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-1764</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-1121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="5">
+        <v>8946</v>
+      </c>
+      <c r="D16" s="5">
+        <v>14207</v>
+      </c>
+      <c r="E16" s="5">
+        <v>11458</v>
+      </c>
+      <c r="F16" s="5">
+        <v>11809</v>
+      </c>
+      <c r="G16" s="5">
+        <v>11477</v>
+      </c>
+      <c r="H16" s="5">
+        <v>9325</v>
+      </c>
+      <c r="I16" s="5">
+        <v>9605</v>
+      </c>
+      <c r="J16" s="5">
+        <v>8136</v>
+      </c>
+      <c r="K16" s="5">
+        <v>6742</v>
+      </c>
+      <c r="L16" s="5">
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2040</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2370</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2812</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2723</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2851</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2201</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2239</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1586</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5560</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5">
+        <v>6906</v>
+      </c>
+      <c r="D18" s="5">
+        <v>11837</v>
+      </c>
+      <c r="E18" s="5">
+        <v>8646</v>
+      </c>
+      <c r="F18" s="5">
+        <v>9086</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8626</v>
+      </c>
+      <c r="H18" s="5">
+        <v>7124</v>
+      </c>
+      <c r="I18" s="5">
+        <v>7366</v>
+      </c>
+      <c r="J18" s="5">
+        <v>6550</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1283</v>
+      </c>
+      <c r="L18" s="5">
+        <v>6476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3">
+        <v>82</v>
+      </c>
+      <c r="D19" s="3">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3">
+        <v>62</v>
+      </c>
+      <c r="F19" s="3">
+        <v>67</v>
+      </c>
+      <c r="G19" s="3">
+        <v>42</v>
+      </c>
+      <c r="H19" s="3">
+        <v>26</v>
+      </c>
+      <c r="I19" s="3">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3">
+        <v>23</v>
+      </c>
+      <c r="K19" s="3">
+        <v>35</v>
+      </c>
+      <c r="L19" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="3">
+        <v>7366</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6550</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1182</v>
+      </c>
+      <c r="L20" s="3">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>101</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="5">
+        <v>6824</v>
+      </c>
+      <c r="D22" s="5">
+        <v>11787</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8584</v>
+      </c>
+      <c r="F22" s="5">
+        <v>9019</v>
+      </c>
+      <c r="G22" s="5">
+        <v>8584</v>
+      </c>
+      <c r="H22" s="5">
+        <v>7098</v>
+      </c>
+      <c r="I22" s="5">
+        <v>7351</v>
+      </c>
+      <c r="J22" s="5">
+        <v>6527</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1248</v>
+      </c>
+      <c r="L22" s="5">
+        <v>6434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7021</v>
+      </c>
+      <c r="D27" s="3">
+        <v>8517</v>
+      </c>
+      <c r="E27" s="3">
+        <v>12803</v>
+      </c>
+      <c r="F27" s="3">
+        <v>8442</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10414</v>
+      </c>
+      <c r="H27" s="3">
+        <v>8958</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7309</v>
+      </c>
+      <c r="J27" s="3">
+        <v>8555</v>
+      </c>
+      <c r="K27" s="3">
+        <v>6006</v>
+      </c>
+      <c r="L27" s="3">
+        <v>8926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2130</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2682</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1088</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5017</v>
+      </c>
+      <c r="G28" s="3">
+        <v>6707</v>
+      </c>
+      <c r="H28" s="3">
+        <v>9052</v>
+      </c>
+      <c r="I28" s="3">
+        <v>8322</v>
+      </c>
+      <c r="J28" s="3">
+        <v>9595</v>
+      </c>
+      <c r="K28" s="3">
+        <v>9352</v>
+      </c>
+      <c r="L28" s="3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="5">
+        <v>9151</v>
+      </c>
+      <c r="D29" s="5">
+        <v>11199</v>
+      </c>
+      <c r="E29" s="5">
+        <v>13891</v>
+      </c>
+      <c r="F29" s="5">
+        <v>13459</v>
+      </c>
+      <c r="G29" s="5">
+        <v>17121</v>
+      </c>
+      <c r="H29" s="5">
+        <v>18010</v>
+      </c>
+      <c r="I29" s="5">
+        <v>15631</v>
+      </c>
+      <c r="J29" s="5">
+        <v>18150</v>
+      </c>
+      <c r="K29" s="5">
+        <v>15358</v>
+      </c>
+      <c r="L29" s="5">
+        <v>10951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3">
+        <v>62</v>
+      </c>
+      <c r="D30" s="3">
+        <v>138</v>
+      </c>
+      <c r="E30" s="3">
+        <v>144</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3092</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3147</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3665</v>
+      </c>
+      <c r="I30" s="3">
+        <v>4269</v>
+      </c>
+      <c r="J30" s="3">
+        <v>4051</v>
+      </c>
+      <c r="K30" s="3">
+        <v>5317</v>
+      </c>
+      <c r="L30" s="3">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3758</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4430</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4920</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4759</v>
+      </c>
+      <c r="G31" s="3">
+        <v>4873</v>
+      </c>
+      <c r="H31" s="3">
+        <v>4466</v>
+      </c>
+      <c r="I31" s="3">
+        <v>3941</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3856</v>
+      </c>
+      <c r="K31" s="3">
+        <v>3667</v>
+      </c>
+      <c r="L31" s="3">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2354</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2650</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3092</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3264</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3277</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2902</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2675</v>
+      </c>
+      <c r="K32" s="3">
+        <v>2655</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2226</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3162</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3450</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2781</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2886</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3066</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2752</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2481</v>
+      </c>
+      <c r="K33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2973</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>679</v>
+      </c>
+      <c r="I34" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>7329</v>
+      </c>
+      <c r="L34" s="3">
+        <v>6546</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2797</v>
+      </c>
+      <c r="K35" s="3">
+        <v>219</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="5">
+        <v>17551</v>
+      </c>
+      <c r="D36" s="5">
+        <v>21579</v>
+      </c>
+      <c r="E36" s="5">
+        <v>25497</v>
+      </c>
+      <c r="F36" s="5">
+        <v>30328</v>
+      </c>
+      <c r="G36" s="5">
+        <v>31304</v>
+      </c>
+      <c r="H36" s="5">
+        <v>32986</v>
+      </c>
+      <c r="I36" s="5">
+        <v>33395</v>
+      </c>
+      <c r="J36" s="5">
+        <v>34010</v>
+      </c>
+      <c r="K36" s="5">
+        <v>36545</v>
+      </c>
+      <c r="L36" s="5">
+        <v>30634</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6217</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6954</v>
+      </c>
+      <c r="E37" s="3">
+        <v>7233</v>
+      </c>
+      <c r="F37" s="3">
+        <v>9216</v>
+      </c>
+      <c r="G37" s="3">
+        <v>10393</v>
+      </c>
+      <c r="H37" s="3">
+        <v>9947</v>
+      </c>
+      <c r="I37" s="3">
+        <v>12318</v>
+      </c>
+      <c r="J37" s="3">
+        <v>16260</v>
+      </c>
+      <c r="K37" s="3">
+        <v>20856</v>
+      </c>
+      <c r="L37" s="3">
+        <v>19407</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="3">
+        <v>538</v>
+      </c>
+      <c r="D38" s="3">
+        <v>631</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1141</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1232</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1119</v>
+      </c>
+      <c r="H38" s="3">
+        <v>3678</v>
+      </c>
+      <c r="I38" s="3">
+        <v>3470</v>
+      </c>
+      <c r="J38" s="3">
+        <v>989</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1096</v>
+      </c>
+      <c r="L38" s="3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1976</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2121</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3495</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3585</v>
+      </c>
+      <c r="G39" s="3">
+        <v>4661</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4407</v>
+      </c>
+      <c r="I39" s="3">
+        <v>4110</v>
+      </c>
+      <c r="J39" s="3">
+        <v>4248</v>
+      </c>
+      <c r="K39" s="3">
+        <v>4230</v>
+      </c>
+      <c r="L39" s="3">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="3">
+        <v>9561</v>
+      </c>
+      <c r="D40" s="3">
+        <v>14727</v>
+      </c>
+      <c r="E40" s="3">
+        <v>14939</v>
+      </c>
+      <c r="F40" s="3">
+        <v>14476</v>
+      </c>
+      <c r="G40" s="3">
+        <v>14967</v>
+      </c>
+      <c r="H40" s="3">
+        <v>14633</v>
+      </c>
+      <c r="I40" s="3">
+        <v>12571</v>
+      </c>
+      <c r="J40" s="3">
+        <v>10635</v>
+      </c>
+      <c r="K40" s="3">
+        <v>8203</v>
+      </c>
+      <c r="L40" s="3">
+        <v>8232</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" s="3">
+        <v>330</v>
+      </c>
+      <c r="L41" s="3">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3">
+        <v>6183</v>
+      </c>
+      <c r="D42" s="3">
+        <v>6356</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6430</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6527</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6744</v>
+      </c>
+      <c r="H42" s="3">
+        <v>6533</v>
+      </c>
+      <c r="I42" s="3">
+        <v>5989</v>
+      </c>
+      <c r="J42" s="3">
+        <v>6097</v>
+      </c>
+      <c r="K42" s="3">
+        <v>6729</v>
+      </c>
+      <c r="L42" s="3">
+        <v>6682</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1953</v>
+      </c>
+      <c r="D43" s="3">
+        <v>7511</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7770</v>
+      </c>
+      <c r="F43" s="3">
+        <v>7405</v>
+      </c>
+      <c r="G43" s="3">
+        <v>7415</v>
+      </c>
+      <c r="H43" s="3">
+        <v>6689</v>
+      </c>
+      <c r="I43" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3676</v>
+      </c>
+      <c r="K43" s="3">
+        <v>138</v>
+      </c>
+      <c r="L43" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4224</v>
+      </c>
+      <c r="D44" s="3">
+        <v>11665</v>
+      </c>
+      <c r="E44" s="3">
+        <v>12219</v>
+      </c>
+      <c r="F44" s="3">
+        <v>12255</v>
+      </c>
+      <c r="G44" s="3">
+        <v>12312</v>
+      </c>
+      <c r="H44" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>11289</v>
+      </c>
+      <c r="J44" s="3">
+        <v>10629</v>
+      </c>
+      <c r="K44" s="3">
+        <v>9401</v>
+      </c>
+      <c r="L44" s="3">
+        <v>10263</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="3">
+        <v>468</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1377</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1250</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1150</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1140</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1050</v>
+      </c>
+      <c r="I45" s="3">
+        <v>854</v>
+      </c>
+      <c r="J45" s="3">
+        <v>726</v>
+      </c>
+      <c r="K45" s="3">
+        <v>368</v>
+      </c>
+      <c r="L45" s="3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="5">
+        <v>48671</v>
+      </c>
+      <c r="D46" s="5">
+        <v>72921</v>
+      </c>
+      <c r="E46" s="5">
+        <v>79974</v>
+      </c>
+      <c r="F46" s="5">
+        <v>86174</v>
+      </c>
+      <c r="G46" s="5">
+        <v>90055</v>
+      </c>
+      <c r="H46" s="5">
+        <v>92023</v>
+      </c>
+      <c r="I46" s="5">
+        <v>89996</v>
+      </c>
+      <c r="J46" s="5">
+        <v>87270</v>
+      </c>
+      <c r="K46" s="5">
+        <v>87896</v>
+      </c>
+      <c r="L46" s="5">
+        <v>83216</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6657</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8859</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9009</v>
+      </c>
+      <c r="F48" s="3">
+        <v>8680</v>
+      </c>
+      <c r="G48" s="3">
+        <v>9577</v>
+      </c>
+      <c r="H48" s="3">
+        <v>9234</v>
+      </c>
+      <c r="I48" s="3">
+        <v>9660</v>
+      </c>
+      <c r="J48" s="3">
+        <v>9490</v>
+      </c>
+      <c r="K48" s="3">
+        <v>8748</v>
+      </c>
+      <c r="L48" s="3">
+        <v>8932</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="3">
+        <v>6749</v>
+      </c>
+      <c r="D49" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12871</v>
+      </c>
+      <c r="F49" s="3">
+        <v>16297</v>
+      </c>
+      <c r="G49" s="3">
+        <v>16901</v>
+      </c>
+      <c r="H49" s="3">
+        <v>19130</v>
+      </c>
+      <c r="I49" s="3">
+        <v>13129</v>
+      </c>
+      <c r="J49" s="3">
+        <v>12498</v>
+      </c>
+      <c r="K49" s="3">
+        <v>13205</v>
+      </c>
+      <c r="L49" s="3">
+        <v>13194</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="3">
+        <v>51</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1276</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2041</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1577</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1024</v>
+      </c>
+      <c r="H50" s="3">
+        <v>3552</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2676</v>
+      </c>
+      <c r="J50" s="3">
+        <v>3527</v>
+      </c>
+      <c r="K50" s="3">
+        <v>3298</v>
+      </c>
+      <c r="L50" s="3">
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="3">
+        <v>264</v>
+      </c>
+      <c r="D51" s="3">
+        <v>273</v>
+      </c>
+      <c r="E51" s="3">
+        <v>362</v>
+      </c>
+      <c r="F51" s="3">
+        <v>471</v>
+      </c>
+      <c r="G51" s="3">
+        <v>309</v>
+      </c>
+      <c r="H51" s="3">
+        <v>400</v>
+      </c>
+      <c r="I51" s="3">
+        <v>331</v>
+      </c>
+      <c r="J51" s="3">
+        <v>307</v>
+      </c>
+      <c r="K51" s="3">
+        <v>410</v>
+      </c>
+      <c r="L51" s="3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>796</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>58</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1133</v>
+      </c>
+      <c r="J52" s="3">
+        <v>710</v>
+      </c>
+      <c r="K52" s="3">
+        <v>37</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>1496</v>
+      </c>
+      <c r="L53" s="3">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="5">
+        <v>13721</v>
+      </c>
+      <c r="D54" s="5">
+        <v>18508</v>
+      </c>
+      <c r="E54" s="5">
+        <v>24283</v>
+      </c>
+      <c r="F54" s="5">
+        <v>27821</v>
+      </c>
+      <c r="G54" s="5">
+        <v>27811</v>
+      </c>
+      <c r="H54" s="5">
+        <v>32374</v>
+      </c>
+      <c r="I54" s="5">
+        <v>26929</v>
+      </c>
+      <c r="J54" s="5">
+        <v>26532</v>
+      </c>
+      <c r="K54" s="5">
+        <v>27194</v>
+      </c>
+      <c r="L54" s="5">
+        <v>29223</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="3">
+        <v>5059</v>
+      </c>
+      <c r="D55" s="3">
+        <v>14041</v>
+      </c>
+      <c r="E55" s="3">
+        <v>13656</v>
+      </c>
+      <c r="F55" s="3">
+        <v>14736</v>
+      </c>
+      <c r="G55" s="3">
+        <v>19154</v>
+      </c>
+      <c r="H55" s="3">
+        <v>19063</v>
+      </c>
+      <c r="I55" s="3">
+        <v>28311</v>
+      </c>
+      <c r="J55" s="3">
+        <v>29684</v>
+      </c>
+      <c r="K55" s="3">
+        <v>31182</v>
+      </c>
+      <c r="L55" s="3">
+        <v>25364</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2965</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4794</v>
+      </c>
+      <c r="E56" s="3">
+        <v>5420</v>
+      </c>
+      <c r="F56" s="3">
+        <v>5468</v>
+      </c>
+      <c r="G56" s="3">
+        <v>3498</v>
+      </c>
+      <c r="H56" s="3">
+        <v>4389</v>
+      </c>
+      <c r="I56" s="3">
+        <v>4301</v>
+      </c>
+      <c r="J56" s="3">
+        <v>4081</v>
+      </c>
+      <c r="K56" s="3">
+        <v>8021</v>
+      </c>
+      <c r="L56" s="3">
+        <v>7638</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1580</v>
+      </c>
+      <c r="D57" s="3">
+        <v>4261</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4694</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4981</v>
+      </c>
+      <c r="G57" s="3">
+        <v>6152</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5636</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4691</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3753</v>
+      </c>
+      <c r="K57" s="3">
+        <v>2522</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="3">
+        <v>880</v>
+      </c>
+      <c r="D58" s="3">
+        <v>880</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1760</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1760</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1760</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1760</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1760</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1760</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1760</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="3">
+        <v>8537</v>
+      </c>
+      <c r="D59" s="3">
+        <v>10057</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10332</v>
+      </c>
+      <c r="F59" s="3">
+        <v>11379</v>
+      </c>
+      <c r="G59" s="3">
+        <v>12276</v>
+      </c>
+      <c r="H59" s="3">
+        <v>13154</v>
+      </c>
+      <c r="I59" s="3">
+        <v>14016</v>
+      </c>
+      <c r="J59" s="3">
+        <v>14993</v>
+      </c>
+      <c r="K59" s="3">
+        <v>15864</v>
+      </c>
+      <c r="L59" s="3">
+        <v>16520</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="3">
+        <v>41537</v>
+      </c>
+      <c r="D60" s="3">
+        <v>49278</v>
+      </c>
+      <c r="E60" s="3">
+        <v>53621</v>
+      </c>
+      <c r="F60" s="3">
+        <v>58045</v>
+      </c>
+      <c r="G60" s="3">
+        <v>61660</v>
+      </c>
+      <c r="H60" s="3">
+        <v>63408</v>
+      </c>
+      <c r="I60" s="3">
+        <v>65018</v>
+      </c>
+      <c r="J60" s="3">
+        <v>65502</v>
+      </c>
+      <c r="K60" s="3">
+        <v>60430</v>
+      </c>
+      <c r="L60" s="3">
+        <v>63234</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="3">
+        <v>-757</v>
+      </c>
+      <c r="D61" s="3">
+        <v>-1450</v>
+      </c>
+      <c r="E61" s="3">
+        <v>-2774</v>
+      </c>
+      <c r="F61" s="3">
+        <v>-3385</v>
+      </c>
+      <c r="G61" s="3">
+        <v>-3432</v>
+      </c>
+      <c r="H61" s="3">
+        <v>-5777</v>
+      </c>
+      <c r="I61" s="3">
+        <v>-10174</v>
+      </c>
+      <c r="J61" s="3">
+        <v>-11205</v>
+      </c>
+      <c r="K61" s="3">
+        <v>-10305</v>
+      </c>
+      <c r="L61" s="3">
+        <v>-12814</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="3">
+        <v>-25398</v>
+      </c>
+      <c r="D62" s="3">
+        <v>-27762</v>
+      </c>
+      <c r="E62" s="3">
+        <v>-31304</v>
+      </c>
+      <c r="F62" s="3">
+        <v>-35009</v>
+      </c>
+      <c r="G62" s="3">
+        <v>-39091</v>
+      </c>
+      <c r="H62" s="3">
+        <v>-42225</v>
+      </c>
+      <c r="I62" s="3">
+        <v>-45066</v>
+      </c>
+      <c r="J62" s="3">
+        <v>-47988</v>
+      </c>
+      <c r="K62" s="3">
+        <v>-50677</v>
+      </c>
+      <c r="L62" s="3">
+        <v>-51719</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="5">
+        <v>24799</v>
+      </c>
+      <c r="D63" s="5">
+        <v>31003</v>
+      </c>
+      <c r="E63" s="5">
+        <v>31635</v>
+      </c>
+      <c r="F63" s="5">
+        <v>32790</v>
+      </c>
+      <c r="G63" s="5">
+        <v>33173</v>
+      </c>
+      <c r="H63" s="5">
+        <v>30320</v>
+      </c>
+      <c r="I63" s="5">
+        <v>25554</v>
+      </c>
+      <c r="J63" s="5">
+        <v>23062</v>
+      </c>
+      <c r="K63" s="5">
+        <v>17072</v>
+      </c>
+      <c r="L63" s="5">
+        <v>16981</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="3">
+        <v>547</v>
+      </c>
+      <c r="D64" s="3">
+        <v>314</v>
+      </c>
+      <c r="E64" s="3">
+        <v>286</v>
+      </c>
+      <c r="F64" s="3">
+        <v>378</v>
+      </c>
+      <c r="G64" s="3">
+        <v>267</v>
+      </c>
+      <c r="H64" s="3">
+        <v>241</v>
+      </c>
+      <c r="I64" s="3">
+        <v>210</v>
+      </c>
+      <c r="J64" s="3">
+        <v>158</v>
+      </c>
+      <c r="K64" s="3">
+        <v>1905</v>
+      </c>
+      <c r="L64" s="3">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="5">
+        <v>25346</v>
+      </c>
+      <c r="D65" s="5">
+        <v>31317</v>
+      </c>
+      <c r="E65" s="5">
+        <v>31921</v>
+      </c>
+      <c r="F65" s="5">
+        <v>33168</v>
+      </c>
+      <c r="G65" s="5">
+        <v>33440</v>
+      </c>
+      <c r="H65" s="5">
+        <v>30561</v>
+      </c>
+      <c r="I65" s="5">
+        <v>25764</v>
+      </c>
+      <c r="J65" s="5">
+        <v>23220</v>
+      </c>
+      <c r="K65" s="5">
+        <v>18977</v>
+      </c>
+      <c r="L65" s="5">
+        <v>19058</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="5">
+        <v>48671</v>
+      </c>
+      <c r="D66" s="5">
+        <v>72921</v>
+      </c>
+      <c r="E66" s="5">
+        <v>79974</v>
+      </c>
+      <c r="F66" s="5">
+        <v>86174</v>
+      </c>
+      <c r="G66" s="5">
+        <v>90055</v>
+      </c>
+      <c r="H66" s="5">
+        <v>92023</v>
+      </c>
+      <c r="I66" s="5">
+        <v>89996</v>
+      </c>
+      <c r="J66" s="5">
+        <v>87270</v>
+      </c>
+      <c r="K66" s="5">
+        <v>87896</v>
+      </c>
+      <c r="L66" s="5">
+        <v>83216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" t="s">
+        <v>9</v>
+      </c>
+      <c r="J69" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="3">
+        <v>6906</v>
+      </c>
+      <c r="D70" s="3">
+        <v>11837</v>
+      </c>
+      <c r="E70" s="3">
+        <v>8646</v>
+      </c>
+      <c r="F70" s="3">
+        <v>9086</v>
+      </c>
+      <c r="G70" s="3">
+        <v>8626</v>
+      </c>
+      <c r="H70" s="3">
+        <v>7124</v>
+      </c>
+      <c r="I70" s="3">
+        <v>7366</v>
+      </c>
+      <c r="J70" s="3">
+        <v>6550</v>
+      </c>
+      <c r="K70" s="3">
+        <v>1283</v>
+      </c>
+      <c r="L70" s="3">
+        <v>6476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1236</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1443</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1954</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1982</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1977</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1976</v>
+      </c>
+      <c r="I71" s="3">
+        <v>1970</v>
+      </c>
+      <c r="J71" s="3">
+        <v>1787</v>
+      </c>
+      <c r="K71" s="3">
+        <v>1260</v>
+      </c>
+      <c r="L71" s="3">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-101</v>
+      </c>
+      <c r="L72" s="3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" s="3">
+        <v>7366</v>
+      </c>
+      <c r="J73" s="3">
+        <v>6550</v>
+      </c>
+      <c r="K73" s="3">
+        <v>1182</v>
+      </c>
+      <c r="L73" s="3">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="3">
+        <v>241</v>
+      </c>
+      <c r="D74" s="3">
+        <v>380</v>
+      </c>
+      <c r="E74" s="3">
+        <v>354</v>
+      </c>
+      <c r="F74" s="3">
+        <v>259</v>
+      </c>
+      <c r="G74" s="3">
+        <v>227</v>
+      </c>
+      <c r="H74" s="3">
+        <v>209</v>
+      </c>
+      <c r="I74" s="3">
+        <v>236</v>
+      </c>
+      <c r="J74" s="3">
+        <v>258</v>
+      </c>
+      <c r="K74" s="3">
+        <v>219</v>
+      </c>
+      <c r="L74" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="3">
+        <v>353</v>
+      </c>
+      <c r="D75" s="3">
+        <v>604</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1035</v>
+      </c>
+      <c r="F75" s="3">
+        <v>632</v>
+      </c>
+      <c r="G75" s="3">
+        <v>648</v>
+      </c>
+      <c r="H75" s="3">
+        <v>-40</v>
+      </c>
+      <c r="I75" s="3">
+        <v>73</v>
+      </c>
+      <c r="J75" s="3">
+        <v>-856</v>
+      </c>
+      <c r="K75" s="3">
+        <v>-1256</v>
+      </c>
+      <c r="L75" s="3">
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="3">
+        <v>-359</v>
+      </c>
+      <c r="D76" s="3">
+        <v>-671</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-269</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-426</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-201</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-371</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-122</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-449</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-628</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-457</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="3">
+        <v>61</v>
+      </c>
+      <c r="D77" s="3">
+        <v>151</v>
+      </c>
+      <c r="E77" s="3">
+        <v>7</v>
+      </c>
+      <c r="F77" s="3">
+        <v>-130</v>
+      </c>
+      <c r="G77" s="3">
+        <v>168</v>
+      </c>
+      <c r="H77" s="3">
+        <v>415</v>
+      </c>
+      <c r="I77" s="3">
+        <v>-137</v>
+      </c>
+      <c r="J77" s="3">
+        <v>158</v>
+      </c>
+      <c r="K77" s="3">
+        <v>281</v>
+      </c>
+      <c r="L77" s="3">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="3">
+        <v>-43</v>
+      </c>
+      <c r="D78" s="3">
+        <v>-645</v>
+      </c>
+      <c r="E78" s="3">
+        <v>-220</v>
+      </c>
+      <c r="F78" s="3">
+        <v>-98</v>
+      </c>
+      <c r="G78" s="3">
+        <v>-670</v>
+      </c>
+      <c r="H78" s="3">
+        <v>831</v>
+      </c>
+      <c r="I78" s="3">
+        <v>-374</v>
+      </c>
+      <c r="J78" s="3">
+        <v>1146</v>
+      </c>
+      <c r="K78" s="3">
+        <v>1459</v>
+      </c>
+      <c r="L78" s="3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3">
+        <v>-4713</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="3">
+        <v>134</v>
+      </c>
+      <c r="D80" s="3">
+        <v>264</v>
+      </c>
+      <c r="E80" s="3">
+        <v>214</v>
+      </c>
+      <c r="F80" s="3">
+        <v>166</v>
+      </c>
+      <c r="G80" s="3">
+        <v>465</v>
+      </c>
+      <c r="H80" s="3">
+        <v>761</v>
+      </c>
+      <c r="I80" s="3">
+        <v>929</v>
+      </c>
+      <c r="J80" s="3">
+        <v>647</v>
+      </c>
+      <c r="K80" s="3">
+        <v>1218</v>
+      </c>
+      <c r="L80" s="3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="3">
+        <v>221</v>
+      </c>
+      <c r="D81" s="3">
+        <v>512</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-354</v>
+      </c>
+      <c r="F81" s="3">
+        <v>254</v>
+      </c>
+      <c r="G81" s="3">
+        <v>234</v>
+      </c>
+      <c r="H81" s="3">
+        <v>149</v>
+      </c>
+      <c r="I81" s="3">
+        <v>744</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-224</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-269</v>
+      </c>
+      <c r="L81" s="3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="3">
+        <v>-564</v>
+      </c>
+      <c r="D82" s="3">
+        <v>370</v>
+      </c>
+      <c r="E82" s="3">
+        <v>-1893</v>
+      </c>
+      <c r="F82" s="3">
+        <v>-1080</v>
+      </c>
+      <c r="G82" s="3">
+        <v>-932</v>
+      </c>
+      <c r="H82" s="3">
+        <v>-439</v>
+      </c>
+      <c r="I82" s="3">
+        <v>-157</v>
+      </c>
+      <c r="J82" s="3">
+        <v>-221</v>
+      </c>
+      <c r="K82" s="3">
+        <v>3464</v>
+      </c>
+      <c r="L82" s="3">
+        <v>-1202</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="5">
+        <v>8186</v>
+      </c>
+      <c r="D83" s="5">
+        <v>9532</v>
+      </c>
+      <c r="E83" s="5">
+        <v>9474</v>
+      </c>
+      <c r="F83" s="5">
+        <v>10645</v>
+      </c>
+      <c r="G83" s="5">
+        <v>10542</v>
+      </c>
+      <c r="H83" s="5">
+        <v>10615</v>
+      </c>
+      <c r="I83" s="5">
+        <v>10528</v>
+      </c>
+      <c r="J83" s="5">
+        <v>8796</v>
+      </c>
+      <c r="K83" s="5">
+        <v>6930</v>
+      </c>
+      <c r="L83" s="5">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="3">
+        <v>-2130</v>
+      </c>
+      <c r="D84" s="3">
+        <v>-4579</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="3">
+        <v>-22</v>
+      </c>
+      <c r="D85" s="3">
+        <v>-132</v>
+      </c>
+      <c r="E85" s="3">
+        <v>-4798</v>
+      </c>
+      <c r="F85" s="3">
+        <v>-14824</v>
+      </c>
+      <c r="G85" s="3">
+        <v>-14782</v>
+      </c>
+      <c r="H85" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="I85" s="3">
+        <v>-15831</v>
+      </c>
+      <c r="J85" s="3">
+        <v>-15499</v>
+      </c>
+      <c r="K85" s="3">
+        <v>-17296</v>
+      </c>
+      <c r="L85" s="3">
+        <v>-7789</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="3">
+        <v>4032</v>
+      </c>
+      <c r="E86" s="3">
+        <v>5811</v>
+      </c>
+      <c r="F86" s="3">
+        <v>7791</v>
+      </c>
+      <c r="G86" s="3">
+        <v>12791</v>
+      </c>
+      <c r="H86" s="3">
+        <v>12986</v>
+      </c>
+      <c r="I86" s="3">
+        <v>14079</v>
+      </c>
+      <c r="J86" s="3">
+        <v>16624</v>
+      </c>
+      <c r="K86" s="3">
+        <v>16694</v>
+      </c>
+      <c r="L86" s="3">
+        <v>14977</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="3">
+        <v>-300</v>
+      </c>
+      <c r="D87" s="3">
+        <v>-2511</v>
+      </c>
+      <c r="E87" s="3">
+        <v>-971</v>
+      </c>
+      <c r="F87" s="3">
+        <v>-1486</v>
+      </c>
+      <c r="G87" s="3">
+        <v>-353</v>
+      </c>
+      <c r="H87" s="3">
+        <v>-389</v>
+      </c>
+      <c r="I87" s="3">
+        <v>-2491</v>
+      </c>
+      <c r="J87" s="3">
+        <v>-838</v>
+      </c>
+      <c r="K87" s="3">
+        <v>-3809</v>
+      </c>
+      <c r="L87" s="3">
+        <v>-1040</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="3">
+        <v>240</v>
+      </c>
+      <c r="D88" s="3">
+        <v>972</v>
+      </c>
+      <c r="E88" s="3">
+        <v>398</v>
+      </c>
+      <c r="F88" s="3">
+        <v>20</v>
+      </c>
+      <c r="G88" s="3">
+        <v>872</v>
+      </c>
+      <c r="H88" s="3">
+        <v>148</v>
+      </c>
+      <c r="I88" s="3">
+        <v>565</v>
+      </c>
+      <c r="J88" s="3">
+        <v>1035</v>
+      </c>
+      <c r="K88" s="3">
+        <v>3821</v>
+      </c>
+      <c r="L88" s="3">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="3">
+        <v>-1993</v>
+      </c>
+      <c r="D89" s="3">
+        <v>-2215</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2920</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-2780</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-2550</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-2406</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-2553</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-2262</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-1675</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-1347</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="3">
+        <v>104</v>
+      </c>
+      <c r="D90" s="3">
+        <v>134</v>
+      </c>
+      <c r="E90" s="3">
+        <v>101</v>
+      </c>
+      <c r="F90" s="3">
+        <v>143</v>
+      </c>
+      <c r="G90" s="3">
+        <v>111</v>
+      </c>
+      <c r="H90" s="3">
+        <v>223</v>
+      </c>
+      <c r="I90" s="3">
+        <v>85</v>
+      </c>
+      <c r="J90" s="3">
+        <v>150</v>
+      </c>
+      <c r="K90" s="3">
+        <v>104</v>
+      </c>
+      <c r="L90" s="3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="3">
+        <v>-48</v>
+      </c>
+      <c r="D91" s="3">
+        <v>-106</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-145</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-268</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-303</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-268</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-40</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-209</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-93</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" s="5">
+        <v>-4149</v>
+      </c>
+      <c r="D92" s="5">
+        <v>-4405</v>
+      </c>
+      <c r="E92" s="5">
+        <v>-2524</v>
+      </c>
+      <c r="F92" s="5">
+        <v>-11404</v>
+      </c>
+      <c r="G92" s="5">
+        <v>-4214</v>
+      </c>
+      <c r="H92" s="5">
+        <v>-7506</v>
+      </c>
+      <c r="I92" s="5">
+        <v>-6186</v>
+      </c>
+      <c r="J92" s="5">
+        <v>-999</v>
+      </c>
+      <c r="K92" s="5">
+        <v>-2254</v>
+      </c>
+      <c r="L92" s="5">
+        <v>6348</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="3">
+        <v>14689</v>
+      </c>
+      <c r="D93" s="3">
+        <v>15251</v>
+      </c>
+      <c r="E93" s="3">
+        <v>27495</v>
+      </c>
+      <c r="F93" s="3">
+        <v>42791</v>
+      </c>
+      <c r="G93" s="3">
+        <v>43425</v>
+      </c>
+      <c r="H93" s="3">
+        <v>41674</v>
+      </c>
+      <c r="I93" s="3">
+        <v>40434</v>
+      </c>
+      <c r="J93" s="3">
+        <v>27281</v>
+      </c>
+      <c r="K93" s="3">
+        <v>29857</v>
+      </c>
+      <c r="L93" s="3">
+        <v>27339</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="3">
+        <v>-12326</v>
+      </c>
+      <c r="D94" s="3">
+        <v>-13403</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-22530</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-38573</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-38714</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-36962</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-37738</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-25615</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-28768</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-30568</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" s="3">
+        <v>664</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1666</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1569</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1489</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1328</v>
+      </c>
+      <c r="H95" s="3">
+        <v>1532</v>
+      </c>
+      <c r="I95" s="3">
+        <v>1245</v>
+      </c>
+      <c r="J95" s="3">
+        <v>1434</v>
+      </c>
+      <c r="K95" s="3">
+        <v>1595</v>
+      </c>
+      <c r="L95" s="3">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" s="3">
+        <v>-1518</v>
+      </c>
+      <c r="D96" s="3">
+        <v>-2961</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-4513</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-4559</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-4832</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-4162</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-3564</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-3681</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-3682</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-1912</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="D97" s="3">
+        <v>-4068</v>
+      </c>
+      <c r="E97" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F97" s="3">
+        <v>-4595</v>
+      </c>
+      <c r="G97" s="3">
+        <v>-4969</v>
+      </c>
+      <c r="H97" s="3">
+        <v>-5350</v>
+      </c>
+      <c r="I97" s="3">
+        <v>-5741</v>
+      </c>
+      <c r="J97" s="3">
+        <v>-6043</v>
+      </c>
+      <c r="K97" s="3">
+        <v>-6320</v>
+      </c>
+      <c r="L97" s="3">
+        <v>-6644</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="3">
+        <v>-2</v>
+      </c>
+      <c r="D98" s="3">
+        <v>50</v>
+      </c>
+      <c r="E98" s="3">
+        <v>45</v>
+      </c>
+      <c r="F98" s="3">
+        <v>100</v>
+      </c>
+      <c r="G98" s="3">
+        <v>17</v>
+      </c>
+      <c r="H98" s="3">
+        <v>-363</v>
+      </c>
+      <c r="I98" s="3">
+        <v>251</v>
+      </c>
+      <c r="J98" s="3">
+        <v>79</v>
+      </c>
+      <c r="K98" s="3">
+        <v>-91</v>
+      </c>
+      <c r="L98" s="3">
+        <v>-243</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B99" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" s="5">
+        <v>-2293</v>
+      </c>
+      <c r="D99" s="5">
+        <v>-3465</v>
+      </c>
+      <c r="E99" s="5">
+        <v>-2234</v>
+      </c>
+      <c r="F99" s="5">
+        <v>-3347</v>
+      </c>
+      <c r="G99" s="5">
+        <v>-3745</v>
+      </c>
+      <c r="H99" s="5">
+        <v>-3631</v>
+      </c>
+      <c r="I99" s="5">
+        <v>-5113</v>
+      </c>
+      <c r="J99" s="5">
+        <v>-6545</v>
+      </c>
+      <c r="K99" s="5">
+        <v>-7409</v>
+      </c>
+      <c r="L99" s="5">
+        <v>-10552</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>111</v>
+      </c>
+      <c r="L100" s="3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="3">
+        <v>576</v>
+      </c>
+      <c r="D101" s="3">
+        <v>-166</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-430</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-255</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-611</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-934</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-878</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-6</v>
+      </c>
+      <c r="K101" s="3">
+        <v>241</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-262</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-58</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-421</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0</v>
+      </c>
+      <c r="J103" s="3">
+        <v>0</v>
+      </c>
+      <c r="K103" s="3">
+        <v>-38</v>
+      </c>
+      <c r="L103" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3">
+        <v>0</v>
+      </c>
+      <c r="K104" s="3">
+        <v>15</v>
+      </c>
+      <c r="L104" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B105" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2320</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1496</v>
+      </c>
+      <c r="E105" s="5">
+        <v>4286</v>
+      </c>
+      <c r="F105" s="5">
+        <v>-4361</v>
+      </c>
+      <c r="G105" s="5">
+        <v>1972</v>
+      </c>
+      <c r="H105" s="5">
+        <v>-1456</v>
+      </c>
+      <c r="I105" s="5">
+        <v>-1649</v>
+      </c>
+      <c r="J105" s="5">
+        <v>1246</v>
+      </c>
+      <c r="K105" s="5">
+        <v>-2477</v>
+      </c>
+      <c r="L105" s="5">
+        <v>2945</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{8230F494-4D98-1146-8542-9189D11CB457}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A823EEBC-F43D-5F41-ABFE-7C49041FAC3B}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="3">
+        <v>30990</v>
+      </c>
+      <c r="D2" s="3">
+        <v>35119</v>
+      </c>
+      <c r="E2" s="3">
+        <v>46542</v>
+      </c>
+      <c r="F2" s="3">
+        <v>48017</v>
+      </c>
+      <c r="G2" s="3">
+        <v>46854</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45998</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44294</v>
+      </c>
+      <c r="J2" s="3">
+        <v>41863</v>
+      </c>
+      <c r="K2" s="3">
+        <v>35410</v>
+      </c>
+      <c r="L2" s="3">
+        <v>31856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11088</v>
+      </c>
+      <c r="D3" s="3">
+        <v>12693</v>
+      </c>
+      <c r="E3" s="3">
+        <v>18215</v>
+      </c>
+      <c r="F3" s="3">
+        <v>19053</v>
+      </c>
+      <c r="G3" s="3">
+        <v>18421</v>
+      </c>
+      <c r="H3" s="3">
+        <v>17889</v>
+      </c>
+      <c r="I3" s="3">
+        <v>17482</v>
+      </c>
+      <c r="J3" s="3">
+        <v>16465</v>
+      </c>
+      <c r="K3" s="3">
+        <v>13255</v>
+      </c>
+      <c r="L3" s="3">
+        <v>11770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="3">
+        <v>11358</v>
+      </c>
+      <c r="D4" s="3">
+        <v>13194</v>
+      </c>
+      <c r="E4" s="3">
+        <v>17422</v>
+      </c>
+      <c r="F4" s="3">
+        <v>17738</v>
+      </c>
+      <c r="G4" s="3">
+        <v>17310</v>
+      </c>
+      <c r="H4" s="3">
+        <v>17218</v>
+      </c>
+      <c r="I4" s="3">
+        <v>16427</v>
+      </c>
+      <c r="J4" s="3">
+        <v>15262</v>
+      </c>
+      <c r="K4" s="3">
+        <v>12654</v>
+      </c>
+      <c r="L4" s="3">
+        <v>10307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="3">
+        <v>313</v>
+      </c>
+      <c r="D5" s="3">
+        <v>819</v>
+      </c>
+      <c r="E5" s="3">
+        <v>732</v>
+      </c>
+      <c r="F5" s="3">
+        <v>447</v>
+      </c>
+      <c r="G5" s="3">
+        <v>895</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1183</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1657</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1510</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1902</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="3">
+        <v>355</v>
+      </c>
+      <c r="D6" s="3">
+        <v>733</v>
+      </c>
+      <c r="E6" s="3">
+        <v>417</v>
+      </c>
+      <c r="F6" s="3">
+        <v>397</v>
+      </c>
+      <c r="G6" s="3">
+        <v>463</v>
+      </c>
+      <c r="H6" s="3">
+        <v>483</v>
+      </c>
+      <c r="I6" s="3">
+        <v>856</v>
+      </c>
+      <c r="J6" s="3">
+        <v>733</v>
+      </c>
+      <c r="K6" s="3">
+        <v>841</v>
+      </c>
+      <c r="L6" s="3">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2040</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2370</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2812</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2723</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2851</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2201</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2239</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1586</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5560</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="3">
+        <v>249</v>
+      </c>
+      <c r="D8" s="3">
+        <v>317</v>
+      </c>
+      <c r="E8" s="3">
+        <v>483</v>
+      </c>
+      <c r="F8" s="3">
+        <v>471</v>
+      </c>
+      <c r="G8" s="3">
+        <v>534</v>
+      </c>
+      <c r="H8" s="3">
+        <v>594</v>
+      </c>
+      <c r="I8" s="3">
+        <v>613</v>
+      </c>
+      <c r="J8" s="3">
+        <v>642</v>
+      </c>
+      <c r="K8" s="3">
+        <v>677</v>
+      </c>
+      <c r="L8" s="3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="3">
+        <v>781</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1025</v>
+      </c>
+      <c r="E9" s="3">
+        <v>690</v>
+      </c>
+      <c r="F9" s="3">
+        <v>819</v>
+      </c>
+      <c r="G9" s="3">
+        <v>602</v>
+      </c>
+      <c r="H9" s="3">
+        <v>769</v>
+      </c>
+      <c r="I9" s="3">
+        <v>489</v>
+      </c>
+      <c r="J9" s="3">
+        <v>835</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1071</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="3">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5185</v>
+      </c>
+      <c r="E10" s="3">
+        <v>529</v>
+      </c>
+      <c r="F10" s="3">
+        <v>137</v>
+      </c>
+      <c r="G10" s="3">
+        <v>576</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-1263</v>
+      </c>
+      <c r="I10" s="3">
+        <v>631</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-1234</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-1764</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-1121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="12">
+        <f>C2-C3-C4-C5-C6-C7+C8+C9+C10</f>
+        <v>6906</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" ref="D11:L11" si="0">D2-D3-D4-D5-D6-D7+D8+D9+D10</f>
+        <v>11837</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
+        <v>8646</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>9086</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>8626</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="0"/>
+        <v>7124</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="0"/>
+        <v>7366</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="0"/>
+        <v>6550</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="0"/>
+        <v>1182</v>
+      </c>
+      <c r="L11" s="12">
+        <f>L2-L3-L4-L5-L6-L7+L8+L9+L10</f>
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="3">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3">
+        <v>62</v>
+      </c>
+      <c r="F12" s="3">
+        <v>67</v>
+      </c>
+      <c r="G12" s="3">
+        <v>42</v>
+      </c>
+      <c r="H12" s="3">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3">
+        <v>23</v>
+      </c>
+      <c r="K12" s="3">
+        <v>35</v>
+      </c>
+      <c r="L12" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>7366</v>
+      </c>
+      <c r="J13" s="8">
+        <v>6550</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1182</v>
+      </c>
+      <c r="L13" s="8">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>101</v>
+      </c>
+      <c r="L14" s="8">
+        <v>-251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB96670-0F51-8249-A851-83E2954D9935}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AB7BCD-76BE-D54C-9B91-1E72F4BD76D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FDF59D-C76B-0246-8C60-63BB3A6C343C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517E6562-DA60-BD4E-9453-4185E6E98FC4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Cola_working_data.xlsx
+++ b/Cola_working_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunamniroula/Developer/GitHub/cocacola-data-analysis-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F48426-FDEF-CC47-A855-B0641EECE699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FAC696-D36F-F54E-B870-AA63D3BA28B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="33600" windowHeight="20380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COCA COLA CO" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,10 @@
     <sheet name="Dashboard" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId8"/>
+    <pivotCache cacheId="24" r:id="rId9"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="188">
   <si>
     <t>Data provided by SimFin</t>
   </si>
@@ -401,14 +405,215 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Cash, Cash Equivalent</t>
+  </si>
+  <si>
+    <t>Short term-investments</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>Markatable Securities</t>
+  </si>
+  <si>
+    <t>Assets helo for sale</t>
+  </si>
+  <si>
+    <t>Non-current</t>
+  </si>
+  <si>
+    <t>Intangible Assets</t>
+  </si>
+  <si>
+    <t>Trade receivable, less allowances</t>
+  </si>
+  <si>
+    <t>Non -current</t>
+  </si>
+  <si>
+    <t>Type of Assets/ Liabilities</t>
+  </si>
+  <si>
+    <t>Current Liabilities</t>
+  </si>
+  <si>
+    <t>Non-controlling Interest</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Consolidated Net Income</t>
+  </si>
+  <si>
+    <t>Depreciation And Amortization</t>
+  </si>
+  <si>
+    <t>(Income) Loss From Discontinued Operations</t>
+  </si>
+  <si>
+    <t>Stock-Based Compensation Expense</t>
+  </si>
+  <si>
+    <t>Deferred Income Taxes</t>
+  </si>
+  <si>
+    <t>Equity (Income) Loss - Net Of Dividends</t>
+  </si>
+  <si>
+    <t>Foreign Currency Adjustments</t>
+  </si>
+  <si>
+    <t>Significant (Gains) Losses On Sales Of Assets - Net</t>
+  </si>
+  <si>
+    <t>Other Significant (Gains) Losses - Net</t>
+  </si>
+  <si>
+    <t>Other Operating Charges</t>
+  </si>
+  <si>
+    <t>Other Items</t>
+  </si>
+  <si>
+    <t>Net Change In Operating Assets And Liabilities</t>
+  </si>
+  <si>
+    <t>Operating Activity</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Outflow</t>
+  </si>
+  <si>
+    <t>Inflow</t>
+  </si>
+  <si>
+    <t>Investment Sales Proceeds</t>
+  </si>
+  <si>
+    <t>Businesses and Investments acquisitions</t>
+  </si>
+  <si>
+    <t>Businesses and Investments sales proceeds</t>
+  </si>
+  <si>
+    <t>Capital Expenditures (PPE Purchases)</t>
+  </si>
+  <si>
+    <t>PPE Sales Proceeds</t>
+  </si>
+  <si>
+    <t>Investing Activity</t>
+  </si>
+  <si>
+    <t>Financing Activity</t>
+  </si>
+  <si>
+    <t>Foreign Exchange Fluctuations</t>
+  </si>
+  <si>
+    <t>Discontinued Operations</t>
+  </si>
+  <si>
+    <t>FX/Discontinued Operations</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Sum of FY '09</t>
+  </si>
+  <si>
+    <t>Sum of FY '10</t>
+  </si>
+  <si>
+    <t>Sum of FY '11</t>
+  </si>
+  <si>
+    <t>Sum of FY '12</t>
+  </si>
+  <si>
+    <t>Sum of FY '13</t>
+  </si>
+  <si>
+    <t>Sum of FY '14</t>
+  </si>
+  <si>
+    <t>Sum of FY '15</t>
+  </si>
+  <si>
+    <t>Sum of FY '16</t>
+  </si>
+  <si>
+    <t>Sum of FY '17</t>
+  </si>
+  <si>
+    <t>Sum of FY '18</t>
+  </si>
+  <si>
+    <t>NET PROFIT</t>
+  </si>
+  <si>
+    <t>PROFIT MARGIN (%)</t>
+  </si>
+  <si>
+    <t>Expense Ratio</t>
+  </si>
+  <si>
+    <t>Year-over-Year Growth</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Year '9</t>
+  </si>
+  <si>
+    <t>Year '10</t>
+  </si>
+  <si>
+    <t>Year '11</t>
+  </si>
+  <si>
+    <t>Year '12</t>
+  </si>
+  <si>
+    <t>Year '13</t>
+  </si>
+  <si>
+    <t>Year '14</t>
+  </si>
+  <si>
+    <t>Year '15</t>
+  </si>
+  <si>
+    <t>Year '16</t>
+  </si>
+  <si>
+    <t>Year '17</t>
+  </si>
+  <si>
+    <t>Year '18</t>
+  </si>
+  <si>
+    <t>Profit and Lass Sheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -430,6 +635,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -471,7 +682,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -488,11 +699,174 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -502,15 +876,54 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" pivotButton="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" pivotButton="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -523,6 +936,3128 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Profit Margin </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot Tables'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Year '9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year '10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year '11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year '12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year '13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Year '14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Year '15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Year '16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year '17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Year '18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot Tables'!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.452726686027751E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1858538113272018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6569120364402047E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9718641314534437E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6539036154864049E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.174007565546328E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9124937914841743E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8046484962855031E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.5184975995481505E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7861627322953291E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EBA-F945-8A29-2E17A958D029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1134285631"/>
+        <c:axId val="1134287423"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1134285631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1134287423"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1134287423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1134285631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Year to Year Growth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot Tables'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Year '9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year '10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year '11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year '12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year '13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Year '14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Year '15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Year '16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Year '17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Year '18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot Tables'!$C$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.13323652791222976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32526552578376378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1691805251170983E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4220588541558199E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8269518077432025E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.7045088916909434E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.4883279902469863E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.15414566562358167</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.10036712792996329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-704D-1D48-A36A-AEFFF90165AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1134987455"/>
+        <c:axId val="1134989695"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1134987455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1134989695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1134989695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1134987455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440266</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED8E8FC-0FE4-D9DF-D30B-0B82EB0168A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FEAC34A-A8C9-2698-3527-2912D4443BB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sunam Niroula" refreshedDate="45869.31811724537" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{8E2B6300-F4A2-E74E-A118-16C7AEB8B11A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:L10" sheet="P&amp;LS"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="Group" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Revenue"/>
+        <s v="Expenses"/>
+        <s v="Income"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Label" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="FY '09" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="30990"/>
+    </cacheField>
+    <cacheField name="FY '10" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="317" maxValue="35119"/>
+    </cacheField>
+    <cacheField name="FY '11" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="417" maxValue="46542"/>
+    </cacheField>
+    <cacheField name="FY '12" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="137" maxValue="48017"/>
+    </cacheField>
+    <cacheField name="FY '13" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="463" maxValue="46854"/>
+    </cacheField>
+    <cacheField name="FY '14" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-1263" maxValue="45998"/>
+    </cacheField>
+    <cacheField name="FY '15" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="489" maxValue="44294"/>
+    </cacheField>
+    <cacheField name="FY '16" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-1234" maxValue="41863"/>
+    </cacheField>
+    <cacheField name="FY '17" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-1764" maxValue="35410"/>
+    </cacheField>
+    <cacheField name="FY '18" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-1121" maxValue="31856"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sunam Niroula" refreshedDate="45869.41019224537" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{0885B02B-4783-5F40-AC3C-D4C408172EC8}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:M31" sheet="BS"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="Type of Assets/ Liabilities" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Current Assets"/>
+        <s v="Non -current"/>
+        <s v="Non-current"/>
+        <s v="Intangible Assets"/>
+        <s v="Current Liabilities"/>
+        <s v="Equity"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Balance Sheet" numFmtId="0">
+      <sharedItems count="30">
+        <s v="Cash, Cash Equivalent"/>
+        <s v="Short term-investments"/>
+        <s v="Markatable Securities"/>
+        <s v="Trade receivable, less allowances"/>
+        <s v="Inventories"/>
+        <s v="Prepaid expenses and other assets"/>
+        <s v="Assets helo for sale"/>
+        <s v="Equity method investments"/>
+        <s v="Other investments"/>
+        <s v="Other assets"/>
+        <s v="Property, plant and equipment - net"/>
+        <s v="Deferred income tax assets"/>
+        <s v="TRADEMARKS WITH INDEFINITE LIVES"/>
+        <s v="BOTTLERS' FRANCHISE RIGHTS WITH INDEFINITE LIVES"/>
+        <s v="Goodwill"/>
+        <s v="Other intangible assets"/>
+        <s v="Accounts payable and accrued expenses"/>
+        <s v="Loans and notes payable"/>
+        <s v="Current maturities of long-term debt"/>
+        <s v="Accrued income taxes"/>
+        <s v="Liabilities held for sale"/>
+        <s v="Long-term debt"/>
+        <s v="Other liabilities"/>
+        <s v="Deferred income taxes"/>
+        <s v="Common stock"/>
+        <s v="Capital surplus"/>
+        <s v="Reinvested earnings"/>
+        <s v="Accumulated other comprehensive income (loss)"/>
+        <s v="Treasury stock, at cost"/>
+        <s v="Non-controlling Interest"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Group" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Assets"/>
+        <s v="Liabilities"/>
+        <s v="Equity"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="FY '09" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-25398" maxValue="41537" count="28">
+        <n v="7021"/>
+        <n v="2130"/>
+        <n v="62"/>
+        <n v="3758"/>
+        <n v="2354"/>
+        <n v="2226"/>
+        <m/>
+        <n v="6217"/>
+        <n v="538"/>
+        <n v="1976"/>
+        <n v="9561"/>
+        <n v="6183"/>
+        <n v="1953"/>
+        <n v="4224"/>
+        <n v="468"/>
+        <n v="6657"/>
+        <n v="6749"/>
+        <n v="51"/>
+        <n v="264"/>
+        <n v="5059"/>
+        <n v="2965"/>
+        <n v="1580"/>
+        <n v="880"/>
+        <n v="8537"/>
+        <n v="41537"/>
+        <n v="-757"/>
+        <n v="-25398"/>
+        <n v="547"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="FY '10" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-27762" maxValue="49278" count="28">
+        <n v="8517"/>
+        <n v="2682"/>
+        <n v="138"/>
+        <n v="4430"/>
+        <n v="2650"/>
+        <n v="3162"/>
+        <m/>
+        <n v="6954"/>
+        <n v="631"/>
+        <n v="2121"/>
+        <n v="14727"/>
+        <n v="6356"/>
+        <n v="7511"/>
+        <n v="11665"/>
+        <n v="1377"/>
+        <n v="8859"/>
+        <n v="8100"/>
+        <n v="1276"/>
+        <n v="273"/>
+        <n v="14041"/>
+        <n v="4794"/>
+        <n v="4261"/>
+        <n v="880"/>
+        <n v="10057"/>
+        <n v="49278"/>
+        <n v="-1450"/>
+        <n v="-27762"/>
+        <n v="314"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="FY '11" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-31304" maxValue="53621" count="29">
+        <n v="12803"/>
+        <n v="1088"/>
+        <n v="144"/>
+        <n v="4920"/>
+        <n v="3092"/>
+        <n v="3450"/>
+        <n v="0"/>
+        <n v="7233"/>
+        <n v="1141"/>
+        <n v="3495"/>
+        <n v="14939"/>
+        <m/>
+        <n v="6430"/>
+        <n v="7770"/>
+        <n v="12219"/>
+        <n v="1250"/>
+        <n v="9009"/>
+        <n v="12871"/>
+        <n v="2041"/>
+        <n v="362"/>
+        <n v="13656"/>
+        <n v="5420"/>
+        <n v="4694"/>
+        <n v="1760"/>
+        <n v="10332"/>
+        <n v="53621"/>
+        <n v="-2774"/>
+        <n v="-31304"/>
+        <n v="286"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="FY '12" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-35009" maxValue="58045"/>
+    </cacheField>
+    <cacheField name="FY '13" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-39091" maxValue="61660"/>
+    </cacheField>
+    <cacheField name="FY '14" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-42225" maxValue="63408"/>
+    </cacheField>
+    <cacheField name="FY '15" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-45066" maxValue="65018"/>
+    </cacheField>
+    <cacheField name="FY '16" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-47988" maxValue="65502"/>
+    </cacheField>
+    <cacheField name="FY '17" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-50677" maxValue="60430"/>
+    </cacheField>
+    <cacheField name="FY '18" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-51719" maxValue="63234"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <x v="0"/>
+    <s v="Operating"/>
+    <n v="30990"/>
+    <n v="35119"/>
+    <n v="46542"/>
+    <n v="48017"/>
+    <n v="46854"/>
+    <n v="45998"/>
+    <n v="44294"/>
+    <n v="41863"/>
+    <n v="35410"/>
+    <n v="31856"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Cost of Goods"/>
+    <n v="11088"/>
+    <n v="12693"/>
+    <n v="18215"/>
+    <n v="19053"/>
+    <n v="18421"/>
+    <n v="17889"/>
+    <n v="17482"/>
+    <n v="16465"/>
+    <n v="13255"/>
+    <n v="11770"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Administrative Expenses"/>
+    <n v="11358"/>
+    <n v="13194"/>
+    <n v="17422"/>
+    <n v="17738"/>
+    <n v="17310"/>
+    <n v="17218"/>
+    <n v="16427"/>
+    <n v="15262"/>
+    <n v="12654"/>
+    <n v="10307"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Operating Charges"/>
+    <n v="313"/>
+    <n v="819"/>
+    <n v="732"/>
+    <n v="447"/>
+    <n v="895"/>
+    <n v="1183"/>
+    <n v="1657"/>
+    <n v="1510"/>
+    <n v="1902"/>
+    <n v="1079"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Interest"/>
+    <n v="355"/>
+    <n v="733"/>
+    <n v="417"/>
+    <n v="397"/>
+    <n v="463"/>
+    <n v="483"/>
+    <n v="856"/>
+    <n v="733"/>
+    <n v="841"/>
+    <n v="919"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Income Tax"/>
+    <n v="2040"/>
+    <n v="2370"/>
+    <n v="2812"/>
+    <n v="2723"/>
+    <n v="2851"/>
+    <n v="2201"/>
+    <n v="2239"/>
+    <n v="1586"/>
+    <n v="5560"/>
+    <n v="1623"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Interest"/>
+    <n v="249"/>
+    <n v="317"/>
+    <n v="483"/>
+    <n v="471"/>
+    <n v="534"/>
+    <n v="594"/>
+    <n v="613"/>
+    <n v="642"/>
+    <n v="677"/>
+    <n v="682"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Equity Income(Loss)"/>
+    <n v="781"/>
+    <n v="1025"/>
+    <n v="690"/>
+    <n v="819"/>
+    <n v="602"/>
+    <n v="769"/>
+    <n v="489"/>
+    <n v="835"/>
+    <n v="1071"/>
+    <n v="1008"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Other Income (Loss)"/>
+    <n v="40"/>
+    <n v="5185"/>
+    <n v="529"/>
+    <n v="137"/>
+    <n v="576"/>
+    <n v="-1263"/>
+    <n v="631"/>
+    <n v="-1234"/>
+    <n v="-1764"/>
+    <n v="-1121"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8442"/>
+    <n v="10414"/>
+    <n v="8958"/>
+    <n v="7309"/>
+    <n v="8555"/>
+    <n v="6006"/>
+    <n v="8926"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5017"/>
+    <n v="6707"/>
+    <n v="9052"/>
+    <n v="8322"/>
+    <n v="9595"/>
+    <n v="9352"/>
+    <n v="2025"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3092"/>
+    <n v="3147"/>
+    <n v="3665"/>
+    <n v="4269"/>
+    <n v="4051"/>
+    <n v="5317"/>
+    <n v="5013"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="4759"/>
+    <n v="4873"/>
+    <n v="4466"/>
+    <n v="3941"/>
+    <n v="3856"/>
+    <n v="3667"/>
+    <n v="3396"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="3264"/>
+    <n v="3277"/>
+    <n v="3100"/>
+    <n v="2902"/>
+    <n v="2675"/>
+    <n v="2655"/>
+    <n v="2766"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="2781"/>
+    <n v="2886"/>
+    <n v="3066"/>
+    <n v="2752"/>
+    <n v="2481"/>
+    <n v="2000"/>
+    <n v="1962"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="2973"/>
+    <n v="0"/>
+    <n v="679"/>
+    <n v="3900"/>
+    <n v="2797"/>
+    <n v="7548"/>
+    <n v="6546"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="9216"/>
+    <n v="10393"/>
+    <n v="9947"/>
+    <n v="12318"/>
+    <n v="16260"/>
+    <n v="20856"/>
+    <n v="19407"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="1232"/>
+    <n v="1119"/>
+    <n v="3678"/>
+    <n v="3470"/>
+    <n v="989"/>
+    <n v="1096"/>
+    <n v="867"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="3585"/>
+    <n v="4661"/>
+    <n v="4407"/>
+    <n v="4110"/>
+    <n v="4248"/>
+    <n v="4230"/>
+    <n v="4139"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="14476"/>
+    <n v="14967"/>
+    <n v="14633"/>
+    <n v="12571"/>
+    <n v="10635"/>
+    <n v="8203"/>
+    <n v="8232"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="330"/>
+    <n v="2667"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="12"/>
+    <n v="6527"/>
+    <n v="6744"/>
+    <n v="6533"/>
+    <n v="5989"/>
+    <n v="6097"/>
+    <n v="6729"/>
+    <n v="6682"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="13"/>
+    <n v="7405"/>
+    <n v="7415"/>
+    <n v="6689"/>
+    <n v="6000"/>
+    <n v="3676"/>
+    <n v="138"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="14"/>
+    <n v="12255"/>
+    <n v="12312"/>
+    <n v="12100"/>
+    <n v="11289"/>
+    <n v="10629"/>
+    <n v="9401"/>
+    <n v="10263"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="15"/>
+    <n v="1150"/>
+    <n v="1140"/>
+    <n v="1050"/>
+    <n v="854"/>
+    <n v="726"/>
+    <n v="368"/>
+    <n v="274"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="16"/>
+    <n v="8680"/>
+    <n v="9577"/>
+    <n v="9234"/>
+    <n v="9660"/>
+    <n v="9490"/>
+    <n v="8748"/>
+    <n v="8932"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="17"/>
+    <n v="16297"/>
+    <n v="16901"/>
+    <n v="19130"/>
+    <n v="13129"/>
+    <n v="12498"/>
+    <n v="13205"/>
+    <n v="13194"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="18"/>
+    <n v="1577"/>
+    <n v="1024"/>
+    <n v="3552"/>
+    <n v="2676"/>
+    <n v="3527"/>
+    <n v="3298"/>
+    <n v="4997"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="19"/>
+    <n v="471"/>
+    <n v="309"/>
+    <n v="400"/>
+    <n v="331"/>
+    <n v="307"/>
+    <n v="410"/>
+    <n v="378"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="796"/>
+    <n v="0"/>
+    <n v="58"/>
+    <n v="1133"/>
+    <n v="710"/>
+    <n v="1533"/>
+    <n v="1722"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="20"/>
+    <n v="14736"/>
+    <n v="19154"/>
+    <n v="19063"/>
+    <n v="28311"/>
+    <n v="29684"/>
+    <n v="31182"/>
+    <n v="25364"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="21"/>
+    <n v="5468"/>
+    <n v="3498"/>
+    <n v="4389"/>
+    <n v="4301"/>
+    <n v="4081"/>
+    <n v="8021"/>
+    <n v="7638"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="23"/>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="22"/>
+    <n v="4981"/>
+    <n v="6152"/>
+    <n v="5636"/>
+    <n v="4691"/>
+    <n v="3753"/>
+    <n v="2522"/>
+    <n v="1933"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="23"/>
+    <n v="1760"/>
+    <n v="1760"/>
+    <n v="1760"/>
+    <n v="1760"/>
+    <n v="1760"/>
+    <n v="1760"/>
+    <n v="1760"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="2"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="24"/>
+    <n v="11379"/>
+    <n v="12276"/>
+    <n v="13154"/>
+    <n v="14016"/>
+    <n v="14993"/>
+    <n v="15864"/>
+    <n v="16520"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="26"/>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="25"/>
+    <n v="58045"/>
+    <n v="61660"/>
+    <n v="63408"/>
+    <n v="65018"/>
+    <n v="65502"/>
+    <n v="60430"/>
+    <n v="63234"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="27"/>
+    <x v="2"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="26"/>
+    <n v="-3385"/>
+    <n v="-3432"/>
+    <n v="-5777"/>
+    <n v="-10174"/>
+    <n v="-11205"/>
+    <n v="-10305"/>
+    <n v="-12814"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="28"/>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="27"/>
+    <n v="-35009"/>
+    <n v="-39091"/>
+    <n v="-42225"/>
+    <n v="-45066"/>
+    <n v="-47988"/>
+    <n v="-50677"/>
+    <n v="-51719"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="28"/>
+    <n v="378"/>
+    <n v="267"/>
+    <n v="241"/>
+    <n v="210"/>
+    <n v="158"/>
+    <n v="1905"/>
+    <n v="2077"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0C8265-F531-C245-9E19-FFDFF490A570}" name="PivotTable3" cacheId="24" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A37:Q38" firstHeaderRow="1" firstDataRow="2" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="31">
+        <item x="16"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="25"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="4"/>
+        <item x="20"/>
+        <item x="17"/>
+        <item x="21"/>
+        <item x="2"/>
+        <item x="29"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="26"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="28"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="29">
+        <item x="26"/>
+        <item x="25"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="18"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="27"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="10"/>
+        <item x="24"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="29">
+        <item x="26"/>
+        <item x="25"/>
+        <item x="2"/>
+        <item x="18"/>
+        <item x="27"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="15"/>
+        <item x="23"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="24"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="30">
+        <item x="27"/>
+        <item x="26"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="28"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="23"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="3"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="24"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item x="25"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="17">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17F1F294-D306-AD49-8259-27AF4368F30B}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A25:K28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+    <i i="9">
+      <x v="9"/>
+    </i>
+  </colItems>
+  <dataFields count="10">
+    <dataField name="Sum of FY '09" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '10" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '11" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '12" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '13" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '14" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '15" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '16" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '17" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '18" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2157264-AB6B-1E46-9E81-8F17921A65FE}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:K4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+    <i i="9">
+      <x v="9"/>
+    </i>
+  </colItems>
+  <dataFields count="10">
+    <dataField name="Year '9" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Year '10" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Year '11" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Year '12" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Year '13" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Year '14" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Year '15" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Year '16" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Year '17" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Year '18" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -815,7 +4350,7 @@
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3924,8 +7459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25532152-7825-904D-94B7-E11618EB0626}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A44" zoomScale="134" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5470,7 +9005,7 @@
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+      <c r="B55" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="3">
@@ -6360,7 +9895,7 @@
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
+      <c r="B84" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="3">
@@ -7045,8 +10580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A823EEBC-F43D-5F41-ABFE-7C49041FAC3B}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7054,41 +10589,41 @@
     <col min="2" max="2" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7434,47 +10969,47 @@
         <v>-1121</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <f>C2-C3-C4-C5-C6-C7+C8+C9+C10</f>
         <v>6906</v>
       </c>
-      <c r="D11" s="12">
-        <f t="shared" ref="D11:L11" si="0">D2-D3-D4-D5-D6-D7+D8+D9+D10</f>
+      <c r="D11" s="11">
+        <f t="shared" ref="D11:K11" si="0">D2-D3-D4-D5-D6-D7+D8+D9+D10</f>
         <v>11837</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f t="shared" si="0"/>
         <v>8646</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f t="shared" si="0"/>
         <v>9086</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>8626</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>7124</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <f t="shared" si="0"/>
         <v>7366</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <f t="shared" si="0"/>
         <v>6550</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <f t="shared" si="0"/>
         <v>1182</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <f>L2-L3-L4-L5-L6-L7+L8+L9+L10</f>
         <v>6727</v>
       </c>
@@ -7575,16 +11110,16 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
@@ -7607,37 +11142,3099 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB96670-0F51-8249-A851-83E2954D9935}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" zoomScale="165" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3">
+        <v>7021</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8517</v>
+      </c>
+      <c r="F2" s="3">
+        <v>12803</v>
+      </c>
+      <c r="G2" s="3">
+        <v>8442</v>
+      </c>
+      <c r="H2" s="3">
+        <v>10414</v>
+      </c>
+      <c r="I2" s="3">
+        <v>8958</v>
+      </c>
+      <c r="J2" s="3">
+        <v>7309</v>
+      </c>
+      <c r="K2" s="3">
+        <v>8555</v>
+      </c>
+      <c r="L2" s="3">
+        <v>6006</v>
+      </c>
+      <c r="M2" s="3">
+        <v>8926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2130</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2682</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1088</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5017</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6707</v>
+      </c>
+      <c r="I3" s="3">
+        <v>9052</v>
+      </c>
+      <c r="J3" s="3">
+        <v>8322</v>
+      </c>
+      <c r="K3" s="3">
+        <v>9595</v>
+      </c>
+      <c r="L3" s="3">
+        <v>9352</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3">
+        <v>62</v>
+      </c>
+      <c r="E4" s="3">
+        <v>138</v>
+      </c>
+      <c r="F4" s="3">
+        <v>144</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3092</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3147</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3665</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4269</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4051</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5317</v>
+      </c>
+      <c r="M4" s="3">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3758</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4430</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4920</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4759</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4873</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4466</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3941</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3856</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3667</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2354</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2650</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3092</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3264</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3277</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2902</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2675</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2655</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2226</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3162</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3450</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2781</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2886</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3066</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2752</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2481</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2973</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>679</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2797</v>
+      </c>
+      <c r="L8" s="8">
+        <f>7329+219</f>
+        <v>7548</v>
+      </c>
+      <c r="M8" s="3">
+        <v>6546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6217</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6954</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7233</v>
+      </c>
+      <c r="G9" s="3">
+        <v>9216</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10393</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9947</v>
+      </c>
+      <c r="J9" s="3">
+        <v>12318</v>
+      </c>
+      <c r="K9" s="3">
+        <v>16260</v>
+      </c>
+      <c r="L9" s="3">
+        <v>20856</v>
+      </c>
+      <c r="M9" s="3">
+        <v>19407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3">
+        <v>538</v>
+      </c>
+      <c r="E10" s="3">
+        <v>631</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1141</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1232</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1119</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3678</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3470</v>
+      </c>
+      <c r="K10" s="3">
+        <v>989</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1096</v>
+      </c>
+      <c r="M10" s="3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1976</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2121</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3495</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3585</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4661</v>
+      </c>
+      <c r="I11" s="3">
+        <v>4407</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4110</v>
+      </c>
+      <c r="K11" s="3">
+        <v>4248</v>
+      </c>
+      <c r="L11" s="3">
+        <v>4230</v>
+      </c>
+      <c r="M11" s="3">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9561</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14727</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14939</v>
+      </c>
+      <c r="G12" s="3">
+        <v>14476</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14967</v>
+      </c>
+      <c r="I12" s="3">
+        <v>14633</v>
+      </c>
+      <c r="J12" s="3">
+        <v>12571</v>
+      </c>
+      <c r="K12" s="3">
+        <v>10635</v>
+      </c>
+      <c r="L12" s="3">
+        <v>8203</v>
+      </c>
+      <c r="M12" s="3">
+        <v>8232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="3">
+        <v>330</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6183</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6356</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6430</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6527</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6744</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6533</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5989</v>
+      </c>
+      <c r="K14" s="3">
+        <v>6097</v>
+      </c>
+      <c r="L14" s="3">
+        <v>6729</v>
+      </c>
+      <c r="M14" s="3">
+        <v>6682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1953</v>
+      </c>
+      <c r="E15" s="3">
+        <v>7511</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7770</v>
+      </c>
+      <c r="G15" s="3">
+        <v>7405</v>
+      </c>
+      <c r="H15" s="3">
+        <v>7415</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6689</v>
+      </c>
+      <c r="J15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3676</v>
+      </c>
+      <c r="L15" s="3">
+        <v>138</v>
+      </c>
+      <c r="M15" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4224</v>
+      </c>
+      <c r="E16" s="3">
+        <v>11665</v>
+      </c>
+      <c r="F16" s="3">
+        <v>12219</v>
+      </c>
+      <c r="G16" s="3">
+        <v>12255</v>
+      </c>
+      <c r="H16" s="3">
+        <v>12312</v>
+      </c>
+      <c r="I16" s="3">
+        <v>12100</v>
+      </c>
+      <c r="J16" s="3">
+        <v>11289</v>
+      </c>
+      <c r="K16" s="3">
+        <v>10629</v>
+      </c>
+      <c r="L16" s="3">
+        <v>9401</v>
+      </c>
+      <c r="M16" s="3">
+        <v>10263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3">
+        <v>468</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1377</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1250</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1150</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1140</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1050</v>
+      </c>
+      <c r="J17" s="3">
+        <v>854</v>
+      </c>
+      <c r="K17" s="3">
+        <v>726</v>
+      </c>
+      <c r="L17" s="3">
+        <v>368</v>
+      </c>
+      <c r="M17" s="3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6657</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8859</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9009</v>
+      </c>
+      <c r="G18" s="3">
+        <v>8680</v>
+      </c>
+      <c r="H18" s="3">
+        <v>9577</v>
+      </c>
+      <c r="I18" s="3">
+        <v>9234</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9660</v>
+      </c>
+      <c r="K18" s="3">
+        <v>9490</v>
+      </c>
+      <c r="L18" s="3">
+        <v>8748</v>
+      </c>
+      <c r="M18" s="3">
+        <v>8932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6749</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>12871</v>
+      </c>
+      <c r="G19" s="3">
+        <v>16297</v>
+      </c>
+      <c r="H19" s="3">
+        <v>16901</v>
+      </c>
+      <c r="I19" s="3">
+        <v>19130</v>
+      </c>
+      <c r="J19" s="3">
+        <v>13129</v>
+      </c>
+      <c r="K19" s="3">
+        <v>12498</v>
+      </c>
+      <c r="L19" s="3">
+        <v>13205</v>
+      </c>
+      <c r="M19" s="3">
+        <v>13194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1276</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2041</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1577</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1024</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3552</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2676</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3527</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3298</v>
+      </c>
+      <c r="M20" s="3">
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="3">
+        <v>264</v>
+      </c>
+      <c r="E21" s="3">
+        <v>273</v>
+      </c>
+      <c r="F21" s="3">
+        <v>362</v>
+      </c>
+      <c r="G21" s="3">
+        <v>471</v>
+      </c>
+      <c r="H21" s="3">
+        <v>309</v>
+      </c>
+      <c r="I21" s="3">
+        <v>400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>331</v>
+      </c>
+      <c r="K21" s="3">
+        <v>307</v>
+      </c>
+      <c r="L21" s="3">
+        <v>410</v>
+      </c>
+      <c r="M21" s="3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>796</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>58</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1133</v>
+      </c>
+      <c r="K22" s="3">
+        <v>710</v>
+      </c>
+      <c r="L22" s="3">
+        <f>37 + 1496</f>
+        <v>1533</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5059</v>
+      </c>
+      <c r="E23" s="3">
+        <v>14041</v>
+      </c>
+      <c r="F23" s="3">
+        <v>13656</v>
+      </c>
+      <c r="G23" s="3">
+        <v>14736</v>
+      </c>
+      <c r="H23" s="3">
+        <v>19154</v>
+      </c>
+      <c r="I23" s="3">
+        <v>19063</v>
+      </c>
+      <c r="J23" s="3">
+        <v>28311</v>
+      </c>
+      <c r="K23" s="3">
+        <v>29684</v>
+      </c>
+      <c r="L23" s="3">
+        <v>31182</v>
+      </c>
+      <c r="M23" s="3">
+        <v>25364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2965</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4794</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5420</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5468</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3498</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4389</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4301</v>
+      </c>
+      <c r="K24" s="3">
+        <v>4081</v>
+      </c>
+      <c r="L24" s="3">
+        <v>8021</v>
+      </c>
+      <c r="M24" s="3">
+        <v>7638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1580</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4261</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4694</v>
+      </c>
+      <c r="G25" s="3">
+        <v>4981</v>
+      </c>
+      <c r="H25" s="3">
+        <v>6152</v>
+      </c>
+      <c r="I25" s="3">
+        <v>5636</v>
+      </c>
+      <c r="J25" s="3">
+        <v>4691</v>
+      </c>
+      <c r="K25" s="3">
+        <v>3753</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2522</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="3">
+        <v>880</v>
+      </c>
+      <c r="E26" s="3">
+        <v>880</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1760</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1760</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1760</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1760</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1760</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1760</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1760</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="3">
+        <v>8537</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10057</v>
+      </c>
+      <c r="F27" s="3">
+        <v>10332</v>
+      </c>
+      <c r="G27" s="3">
+        <v>11379</v>
+      </c>
+      <c r="H27" s="3">
+        <v>12276</v>
+      </c>
+      <c r="I27" s="3">
+        <v>13154</v>
+      </c>
+      <c r="J27" s="3">
+        <v>14016</v>
+      </c>
+      <c r="K27" s="3">
+        <v>14993</v>
+      </c>
+      <c r="L27" s="3">
+        <v>15864</v>
+      </c>
+      <c r="M27" s="3">
+        <v>16520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="3">
+        <v>41537</v>
+      </c>
+      <c r="E28" s="3">
+        <v>49278</v>
+      </c>
+      <c r="F28" s="3">
+        <v>53621</v>
+      </c>
+      <c r="G28" s="3">
+        <v>58045</v>
+      </c>
+      <c r="H28" s="3">
+        <v>61660</v>
+      </c>
+      <c r="I28" s="3">
+        <v>63408</v>
+      </c>
+      <c r="J28" s="3">
+        <v>65018</v>
+      </c>
+      <c r="K28" s="3">
+        <v>65502</v>
+      </c>
+      <c r="L28" s="3">
+        <v>60430</v>
+      </c>
+      <c r="M28" s="3">
+        <v>63234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-757</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-1450</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-2774</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-3385</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-3432</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-5777</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-10174</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-11205</v>
+      </c>
+      <c r="L29" s="3">
+        <v>-10305</v>
+      </c>
+      <c r="M29" s="3">
+        <v>-12814</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-25398</v>
+      </c>
+      <c r="E30" s="3">
+        <v>-27762</v>
+      </c>
+      <c r="F30" s="3">
+        <v>-31304</v>
+      </c>
+      <c r="G30" s="3">
+        <v>-35009</v>
+      </c>
+      <c r="H30" s="3">
+        <v>-39091</v>
+      </c>
+      <c r="I30" s="3">
+        <v>-42225</v>
+      </c>
+      <c r="J30" s="3">
+        <v>-45066</v>
+      </c>
+      <c r="K30" s="3">
+        <v>-47988</v>
+      </c>
+      <c r="L30" s="3">
+        <v>-50677</v>
+      </c>
+      <c r="M30" s="3">
+        <v>-51719</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="3">
+        <v>547</v>
+      </c>
+      <c r="E31" s="3">
+        <v>314</v>
+      </c>
+      <c r="F31" s="3">
+        <v>286</v>
+      </c>
+      <c r="G31" s="3">
+        <v>378</v>
+      </c>
+      <c r="H31" s="3">
+        <v>267</v>
+      </c>
+      <c r="I31" s="3">
+        <v>241</v>
+      </c>
+      <c r="J31" s="3">
+        <v>210</v>
+      </c>
+      <c r="K31" s="3">
+        <v>158</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1905</v>
+      </c>
+      <c r="M31" s="3">
+        <v>2077</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AB7BCD-76BE-D54C-9B91-1E72F4BD76D8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="76.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6906</v>
+      </c>
+      <c r="G2" s="3">
+        <v>11837</v>
+      </c>
+      <c r="H2" s="3">
+        <v>8646</v>
+      </c>
+      <c r="I2" s="3">
+        <v>9086</v>
+      </c>
+      <c r="J2" s="3">
+        <v>8626</v>
+      </c>
+      <c r="K2" s="3">
+        <v>7124</v>
+      </c>
+      <c r="L2" s="3">
+        <v>7366</v>
+      </c>
+      <c r="M2" s="3">
+        <v>6550</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1283</v>
+      </c>
+      <c r="O2" s="3">
+        <v>6476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1236</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1443</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1954</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1982</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1977</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1976</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1970</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1787</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1260</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-101</v>
+      </c>
+      <c r="O4" s="3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="3">
+        <v>241</v>
+      </c>
+      <c r="G5" s="3">
+        <v>380</v>
+      </c>
+      <c r="H5" s="3">
+        <v>354</v>
+      </c>
+      <c r="I5" s="3">
+        <v>259</v>
+      </c>
+      <c r="J5" s="3">
+        <v>227</v>
+      </c>
+      <c r="K5" s="3">
+        <v>209</v>
+      </c>
+      <c r="L5" s="3">
+        <v>236</v>
+      </c>
+      <c r="M5" s="3">
+        <v>258</v>
+      </c>
+      <c r="N5" s="3">
+        <v>219</v>
+      </c>
+      <c r="O5" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="3">
+        <v>353</v>
+      </c>
+      <c r="G6" s="3">
+        <v>604</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1035</v>
+      </c>
+      <c r="I6" s="3">
+        <v>632</v>
+      </c>
+      <c r="J6" s="3">
+        <v>648</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-40</v>
+      </c>
+      <c r="L6" s="3">
+        <v>73</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-856</v>
+      </c>
+      <c r="N6" s="3">
+        <v>-1256</v>
+      </c>
+      <c r="O6" s="3">
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-359</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-671</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-269</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-426</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-201</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-371</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-122</v>
+      </c>
+      <c r="M7" s="3">
+        <v>-449</v>
+      </c>
+      <c r="N7" s="3">
+        <v>-628</v>
+      </c>
+      <c r="O7" s="3">
+        <v>-457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="3">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3">
+        <v>151</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-130</v>
+      </c>
+      <c r="J8" s="3">
+        <v>168</v>
+      </c>
+      <c r="K8" s="3">
+        <v>415</v>
+      </c>
+      <c r="L8" s="3">
+        <v>-137</v>
+      </c>
+      <c r="M8" s="3">
+        <v>158</v>
+      </c>
+      <c r="N8" s="3">
+        <v>281</v>
+      </c>
+      <c r="O8" s="3">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-43</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-645</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-220</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-98</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-670</v>
+      </c>
+      <c r="K9" s="3">
+        <v>831</v>
+      </c>
+      <c r="L9" s="3">
+        <v>-374</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1146</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1459</v>
+      </c>
+      <c r="O9" s="3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-4713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="3">
+        <v>134</v>
+      </c>
+      <c r="G11" s="3">
+        <v>264</v>
+      </c>
+      <c r="H11" s="3">
+        <v>214</v>
+      </c>
+      <c r="I11" s="3">
+        <v>166</v>
+      </c>
+      <c r="J11" s="3">
+        <v>465</v>
+      </c>
+      <c r="K11" s="3">
+        <v>761</v>
+      </c>
+      <c r="L11" s="3">
+        <v>929</v>
+      </c>
+      <c r="M11" s="3">
+        <v>647</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1218</v>
+      </c>
+      <c r="O11" s="3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="3">
+        <v>221</v>
+      </c>
+      <c r="G12" s="3">
+        <v>512</v>
+      </c>
+      <c r="H12" s="3">
+        <v>-354</v>
+      </c>
+      <c r="I12" s="3">
+        <v>254</v>
+      </c>
+      <c r="J12" s="3">
+        <v>234</v>
+      </c>
+      <c r="K12" s="3">
+        <v>149</v>
+      </c>
+      <c r="L12" s="3">
+        <v>744</v>
+      </c>
+      <c r="M12" s="3">
+        <v>-224</v>
+      </c>
+      <c r="N12" s="3">
+        <v>-269</v>
+      </c>
+      <c r="O12" s="3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-564</v>
+      </c>
+      <c r="G13" s="3">
+        <v>370</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-1893</v>
+      </c>
+      <c r="I13" s="3">
+        <v>-1080</v>
+      </c>
+      <c r="J13" s="3">
+        <v>-932</v>
+      </c>
+      <c r="K13" s="3">
+        <v>-439</v>
+      </c>
+      <c r="L13" s="3">
+        <v>-157</v>
+      </c>
+      <c r="M13" s="3">
+        <v>-221</v>
+      </c>
+      <c r="N13" s="3">
+        <v>3464</v>
+      </c>
+      <c r="O13" s="3">
+        <v>-1202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-2152</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-4711</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-4798</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-14824</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-14782</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-15831</v>
+      </c>
+      <c r="M14" s="3">
+        <v>-15499</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-17296</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-7789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4032</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5811</v>
+      </c>
+      <c r="I15" s="3">
+        <v>7791</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12791</v>
+      </c>
+      <c r="K15" s="3">
+        <v>12986</v>
+      </c>
+      <c r="L15" s="3">
+        <v>14079</v>
+      </c>
+      <c r="M15" s="3">
+        <v>16624</v>
+      </c>
+      <c r="N15" s="3">
+        <v>16694</v>
+      </c>
+      <c r="O15" s="3">
+        <v>14977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-2511</v>
+      </c>
+      <c r="H16" s="3">
+        <v>-971</v>
+      </c>
+      <c r="I16" s="3">
+        <v>-1486</v>
+      </c>
+      <c r="J16" s="3">
+        <v>-353</v>
+      </c>
+      <c r="K16" s="3">
+        <v>-389</v>
+      </c>
+      <c r="L16" s="3">
+        <v>-2491</v>
+      </c>
+      <c r="M16" s="3">
+        <v>-838</v>
+      </c>
+      <c r="N16" s="3">
+        <v>-3809</v>
+      </c>
+      <c r="O16" s="3">
+        <v>-1040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="3">
+        <v>240</v>
+      </c>
+      <c r="G17" s="3">
+        <v>972</v>
+      </c>
+      <c r="H17" s="3">
+        <v>398</v>
+      </c>
+      <c r="I17" s="3">
+        <v>20</v>
+      </c>
+      <c r="J17" s="3">
+        <v>872</v>
+      </c>
+      <c r="K17" s="3">
+        <v>148</v>
+      </c>
+      <c r="L17" s="3">
+        <v>565</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1035</v>
+      </c>
+      <c r="N17" s="3">
+        <v>3821</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1993</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-2215</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-2920</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2780</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2550</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-2406</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-2553</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-2262</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-1675</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-1347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="3">
+        <v>104</v>
+      </c>
+      <c r="G19" s="3">
+        <v>134</v>
+      </c>
+      <c r="H19" s="3">
+        <v>101</v>
+      </c>
+      <c r="I19" s="3">
+        <v>143</v>
+      </c>
+      <c r="J19" s="3">
+        <v>111</v>
+      </c>
+      <c r="K19" s="3">
+        <v>223</v>
+      </c>
+      <c r="L19" s="3">
+        <v>85</v>
+      </c>
+      <c r="M19" s="3">
+        <v>150</v>
+      </c>
+      <c r="N19" s="3">
+        <v>104</v>
+      </c>
+      <c r="O19" s="3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-48</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-106</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-145</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-268</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-303</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-268</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-40</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-209</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-93</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="3">
+        <v>14689</v>
+      </c>
+      <c r="G21" s="3">
+        <v>15251</v>
+      </c>
+      <c r="H21" s="3">
+        <v>27495</v>
+      </c>
+      <c r="I21" s="3">
+        <v>42791</v>
+      </c>
+      <c r="J21" s="3">
+        <v>43425</v>
+      </c>
+      <c r="K21" s="3">
+        <v>41674</v>
+      </c>
+      <c r="L21" s="3">
+        <v>40434</v>
+      </c>
+      <c r="M21" s="3">
+        <v>27281</v>
+      </c>
+      <c r="N21" s="3">
+        <v>29857</v>
+      </c>
+      <c r="O21" s="3">
+        <v>27339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-12326</v>
+      </c>
+      <c r="G22" s="3">
+        <v>-13403</v>
+      </c>
+      <c r="H22" s="3">
+        <v>-22530</v>
+      </c>
+      <c r="I22" s="3">
+        <v>-38573</v>
+      </c>
+      <c r="J22" s="3">
+        <v>-38714</v>
+      </c>
+      <c r="K22" s="3">
+        <v>-36962</v>
+      </c>
+      <c r="L22" s="3">
+        <v>-37738</v>
+      </c>
+      <c r="M22" s="3">
+        <v>-25615</v>
+      </c>
+      <c r="N22" s="3">
+        <v>-28768</v>
+      </c>
+      <c r="O22" s="3">
+        <v>-30568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="3">
+        <v>664</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1666</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1569</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1489</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1328</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1532</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1245</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1434</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1595</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-1518</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-2961</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-4513</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-4559</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-4832</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-4162</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-3564</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-3681</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-3682</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-1912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G25" s="3">
+        <v>-4068</v>
+      </c>
+      <c r="H25" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I25" s="3">
+        <v>-4595</v>
+      </c>
+      <c r="J25" s="3">
+        <v>-4969</v>
+      </c>
+      <c r="K25" s="3">
+        <v>-5350</v>
+      </c>
+      <c r="L25" s="3">
+        <v>-5741</v>
+      </c>
+      <c r="M25" s="3">
+        <v>-6043</v>
+      </c>
+      <c r="N25" s="3">
+        <v>-6320</v>
+      </c>
+      <c r="O25" s="3">
+        <v>-6644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>50</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45</v>
+      </c>
+      <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>17</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-363</v>
+      </c>
+      <c r="L26" s="3">
+        <v>251</v>
+      </c>
+      <c r="M26" s="3">
+        <v>79</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-91</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="14">
+        <v>0</v>
+      </c>
+      <c r="N27" s="14">
+        <v>30</v>
+      </c>
+      <c r="O27" s="14">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="3">
+        <v>576</v>
+      </c>
+      <c r="G28" s="3">
+        <v>-166</v>
+      </c>
+      <c r="H28" s="3">
+        <v>-430</v>
+      </c>
+      <c r="I28" s="3">
+        <v>-255</v>
+      </c>
+      <c r="J28" s="3">
+        <v>-611</v>
+      </c>
+      <c r="K28" s="3">
+        <v>-934</v>
+      </c>
+      <c r="L28" s="3">
+        <v>-878</v>
+      </c>
+      <c r="M28" s="3">
+        <v>-6</v>
+      </c>
+      <c r="N28" s="3">
+        <v>241</v>
+      </c>
+      <c r="O28" s="3">
+        <v>-262</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FDF59D-C76B-0246-8C60-63BB3A6C343C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16" width="43" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="90" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="92" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="96" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="98" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="102" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="104" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="110" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="114" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="115" max="116" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="120" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="121" max="122" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="123" max="126" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="129" max="132" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="133" max="134" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="135" max="138" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="139" max="140" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="144" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="145" max="146" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="147" max="148" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="149" max="150" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="151" max="152" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="153" max="154" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="155" max="156" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="157" max="158" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="159" max="162" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="163" max="166" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="167" max="170" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="171" max="172" width="16" bestFit="1" customWidth="1"/>
+    <col min="173" max="174" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="175" max="180" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="181" max="183" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="184" max="189" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="190" max="192" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="193" max="198" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="199" max="201" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="202" max="207" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="208" max="210" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="211" max="216" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="217" max="219" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="220" max="222" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="223" max="225" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="226" max="228" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="229" max="231" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="232" max="234" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="235" max="237" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="238" max="243" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="244" max="249" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="250" max="255" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="256" max="258" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="28">
+        <v>25154</v>
+      </c>
+      <c r="C2" s="32">
+        <v>29809</v>
+      </c>
+      <c r="D2" s="32">
+        <v>39598</v>
+      </c>
+      <c r="E2" s="32">
+        <v>40358</v>
+      </c>
+      <c r="F2" s="32">
+        <v>39940</v>
+      </c>
+      <c r="G2" s="32">
+        <v>38974</v>
+      </c>
+      <c r="H2" s="32">
+        <v>38661</v>
+      </c>
+      <c r="I2" s="32">
+        <v>35556</v>
+      </c>
+      <c r="J2" s="32">
+        <v>34212</v>
+      </c>
+      <c r="K2" s="29">
+        <v>25698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="30">
+        <v>1070</v>
+      </c>
+      <c r="C3" s="33">
+        <v>6527</v>
+      </c>
+      <c r="D3" s="33">
+        <v>1702</v>
+      </c>
+      <c r="E3" s="33">
+        <v>1427</v>
+      </c>
+      <c r="F3" s="33">
+        <v>1712</v>
+      </c>
+      <c r="G3" s="33">
+        <v>100</v>
+      </c>
+      <c r="H3" s="33">
+        <v>1733</v>
+      </c>
+      <c r="I3" s="33">
+        <v>243</v>
+      </c>
+      <c r="J3" s="33">
+        <v>-16</v>
+      </c>
+      <c r="K3" s="31">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="35">
+        <v>30990</v>
+      </c>
+      <c r="C4" s="36">
+        <v>35119</v>
+      </c>
+      <c r="D4" s="36">
+        <v>46542</v>
+      </c>
+      <c r="E4" s="36">
+        <v>48017</v>
+      </c>
+      <c r="F4" s="36">
+        <v>46854</v>
+      </c>
+      <c r="G4" s="36">
+        <v>45998</v>
+      </c>
+      <c r="H4" s="36">
+        <v>44294</v>
+      </c>
+      <c r="I4" s="36">
+        <v>41863</v>
+      </c>
+      <c r="J4" s="36">
+        <v>35410</v>
+      </c>
+      <c r="K4" s="37">
+        <v>31856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="41">
+        <f>B4-B2</f>
+        <v>5836</v>
+      </c>
+      <c r="C5" s="41">
+        <f t="shared" ref="C5:K5" si="0">C4-C2</f>
+        <v>5310</v>
+      </c>
+      <c r="D5" s="41">
+        <f t="shared" si="0"/>
+        <v>6944</v>
+      </c>
+      <c r="E5" s="41">
+        <f t="shared" si="0"/>
+        <v>7659</v>
+      </c>
+      <c r="F5" s="41">
+        <f t="shared" si="0"/>
+        <v>6914</v>
+      </c>
+      <c r="G5" s="41">
+        <f t="shared" si="0"/>
+        <v>7024</v>
+      </c>
+      <c r="H5" s="41">
+        <f t="shared" si="0"/>
+        <v>5633</v>
+      </c>
+      <c r="I5" s="41">
+        <f t="shared" si="0"/>
+        <v>6307</v>
+      </c>
+      <c r="J5" s="41">
+        <f t="shared" si="0"/>
+        <v>1198</v>
+      </c>
+      <c r="K5" s="41">
+        <f t="shared" si="0"/>
+        <v>6158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="39">
+        <f>(B3/B4)</f>
+        <v>3.452726686027751E-2</v>
+      </c>
+      <c r="C6" s="39">
+        <f t="shared" ref="C6:K6" si="1">(C3/C4)</f>
+        <v>0.1858538113272018</v>
+      </c>
+      <c r="D6" s="39">
+        <f t="shared" si="1"/>
+        <v>3.6569120364402047E-2</v>
+      </c>
+      <c r="E6" s="39">
+        <f t="shared" si="1"/>
+        <v>2.9718641314534437E-2</v>
+      </c>
+      <c r="F6" s="39">
+        <f t="shared" si="1"/>
+        <v>3.6539036154864049E-2</v>
+      </c>
+      <c r="G6" s="39">
+        <f t="shared" si="1"/>
+        <v>2.174007565546328E-3</v>
+      </c>
+      <c r="H6" s="39">
+        <f t="shared" si="1"/>
+        <v>3.9124937914841743E-2</v>
+      </c>
+      <c r="I6" s="39">
+        <f t="shared" si="1"/>
+        <v>5.8046484962855031E-3</v>
+      </c>
+      <c r="J6" s="39">
+        <f t="shared" si="1"/>
+        <v>-4.5184975995481505E-4</v>
+      </c>
+      <c r="K6" s="39">
+        <f t="shared" si="1"/>
+        <v>1.7861627322953291E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="40">
+        <f>B2/B4</f>
+        <v>0.8116811874798322</v>
+      </c>
+      <c r="C7" s="40">
+        <f t="shared" ref="C7:K7" si="2">C2/C4</f>
+        <v>0.8487997949827728</v>
+      </c>
+      <c r="D7" s="40">
+        <f t="shared" si="2"/>
+        <v>0.85080142666838554</v>
+      </c>
+      <c r="E7" s="40">
+        <f t="shared" si="2"/>
+        <v>0.84049399171126893</v>
+      </c>
+      <c r="F7" s="40">
+        <f t="shared" si="2"/>
+        <v>0.8524352243138259</v>
+      </c>
+      <c r="G7" s="40">
+        <f t="shared" si="2"/>
+        <v>0.84729770859602593</v>
+      </c>
+      <c r="H7" s="40">
+        <f t="shared" si="2"/>
+        <v>0.87282701946087504</v>
+      </c>
+      <c r="I7" s="40">
+        <f t="shared" si="2"/>
+        <v>0.84934190096266393</v>
+      </c>
+      <c r="J7" s="40">
+        <f t="shared" si="2"/>
+        <v>0.96616774922338322</v>
+      </c>
+      <c r="K7" s="40">
+        <f t="shared" si="2"/>
+        <v>0.80669261677548976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="38">
+        <f>(C4-B4)/B4</f>
+        <v>0.13323652791222976</v>
+      </c>
+      <c r="D8" s="38">
+        <f t="shared" ref="D8:K8" si="3">(D4-C4)/C4</f>
+        <v>0.32526552578376378</v>
+      </c>
+      <c r="E8" s="38">
+        <f t="shared" si="3"/>
+        <v>3.1691805251170983E-2</v>
+      </c>
+      <c r="F8" s="38">
+        <f t="shared" si="3"/>
+        <v>-2.4220588541558199E-2</v>
+      </c>
+      <c r="G8" s="38">
+        <f t="shared" si="3"/>
+        <v>-1.8269518077432025E-2</v>
+      </c>
+      <c r="H8" s="38">
+        <f t="shared" si="3"/>
+        <v>-3.7045088916909434E-2</v>
+      </c>
+      <c r="I8" s="38">
+        <f t="shared" si="3"/>
+        <v>-5.4883279902469863E-2</v>
+      </c>
+      <c r="J8" s="38">
+        <f t="shared" si="3"/>
+        <v>-0.15414566562358167</v>
+      </c>
+      <c r="K8" s="38">
+        <f t="shared" si="3"/>
+        <v>-0.10036712792996329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="28">
+        <v>48671</v>
+      </c>
+      <c r="C26" s="32">
+        <v>72921</v>
+      </c>
+      <c r="D26" s="32">
+        <v>79974</v>
+      </c>
+      <c r="E26" s="32">
+        <v>86174</v>
+      </c>
+      <c r="F26" s="32">
+        <v>90055</v>
+      </c>
+      <c r="G26" s="32">
+        <v>92023</v>
+      </c>
+      <c r="H26" s="32">
+        <v>89996</v>
+      </c>
+      <c r="I26" s="32">
+        <v>87270</v>
+      </c>
+      <c r="J26" s="32">
+        <v>87896</v>
+      </c>
+      <c r="K26" s="29">
+        <v>83216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="30">
+        <v>23325</v>
+      </c>
+      <c r="C27" s="33">
+        <v>41604</v>
+      </c>
+      <c r="D27" s="33">
+        <v>48053</v>
+      </c>
+      <c r="E27" s="33">
+        <v>53006</v>
+      </c>
+      <c r="F27" s="33">
+        <v>56615</v>
+      </c>
+      <c r="G27" s="33">
+        <v>61462</v>
+      </c>
+      <c r="H27" s="33">
+        <v>64232</v>
+      </c>
+      <c r="I27" s="33">
+        <v>64050</v>
+      </c>
+      <c r="J27" s="33">
+        <v>68919</v>
+      </c>
+      <c r="K27" s="31">
+        <v>64158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="35">
+        <v>25346</v>
+      </c>
+      <c r="C28" s="36">
+        <v>31317</v>
+      </c>
+      <c r="D28" s="36">
+        <v>31921</v>
+      </c>
+      <c r="E28" s="36">
+        <v>33168</v>
+      </c>
+      <c r="F28" s="36">
+        <v>33440</v>
+      </c>
+      <c r="G28" s="36">
+        <v>30561</v>
+      </c>
+      <c r="H28" s="36">
+        <v>25764</v>
+      </c>
+      <c r="I28" s="36">
+        <v>23220</v>
+      </c>
+      <c r="J28" s="36">
+        <v>18977</v>
+      </c>
+      <c r="K28" s="37">
+        <v>19058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="19"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="O38" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="P38" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q38" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B7:K7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:K6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:K8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Cola_working_data.xlsx
+++ b/Cola_working_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunamniroula/Developer/GitHub/cocacola-data-analysis-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FAC696-D36F-F54E-B870-AA63D3BA28B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445473D2-EE62-4C43-B839-10E79C3ED91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="33600" windowHeight="20380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="33600" windowHeight="20380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COCA COLA CO" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <sheet name="BS" sheetId="6" r:id="rId4"/>
     <sheet name="CFS" sheetId="7" r:id="rId5"/>
     <sheet name="Pivot Tables" sheetId="3" r:id="rId6"/>
-    <sheet name="Dashboard" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId8"/>
-    <pivotCache cacheId="24" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -866,7 +865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -881,9 +880,8 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -899,27 +897,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" pivotButton="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3626,7 +3620,202 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0C8265-F531-C245-9E19-FFDFF490A570}" name="PivotTable3" cacheId="24" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17F1F294-D306-AD49-8259-27AF4368F30B}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A25:K28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+    <i i="9">
+      <x v="9"/>
+    </i>
+  </colItems>
+  <dataFields count="10">
+    <dataField name="Sum of FY '09" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '10" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '11" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '12" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '13" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '14" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '15" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '16" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '17" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FY '18" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2157264-AB6B-1E46-9E81-8F17921A65FE}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:K4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+    <i i="9">
+      <x v="9"/>
+    </i>
+  </colItems>
+  <dataFields count="10">
+    <dataField name="Year '9" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Year '10" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Year '11" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Year '12" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Year '13" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Year '14" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Year '15" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Year '16" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Year '17" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Year '18" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0C8265-F531-C245-9E19-FFDFF490A570}" name="PivotTable3" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A37:Q38" firstHeaderRow="1" firstDataRow="2" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0">
@@ -3853,201 +4042,6 @@
   <pageFields count="1">
     <pageField fld="2" hier="-1"/>
   </pageFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17F1F294-D306-AD49-8259-27AF4368F30B}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A25:K28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
-    <i i="9">
-      <x v="9"/>
-    </i>
-  </colItems>
-  <dataFields count="10">
-    <dataField name="Sum of FY '09" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of FY '10" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of FY '11" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of FY '12" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of FY '13" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of FY '14" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Sum of FY '15" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Sum of FY '16" fld="10" baseField="0" baseItem="0"/>
-    <dataField name="Sum of FY '17" fld="11" baseField="0" baseItem="0"/>
-    <dataField name="Sum of FY '18" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2157264-AB6B-1E46-9E81-8F17921A65FE}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:K4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
-    <i i="9">
-      <x v="9"/>
-    </i>
-  </colItems>
-  <dataFields count="10">
-    <dataField name="Year '9" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Year '10" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Year '11" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Year '12" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Year '13" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Year '14" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Year '15" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Year '16" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Year '17" fld="10" baseField="0" baseItem="0"/>
-    <dataField name="Year '18" fld="11" baseField="0" baseItem="0"/>
-  </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -7459,7 +7453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25532152-7825-904D-94B7-E11618EB0626}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="134" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="134" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
@@ -13380,34 +13374,34 @@
       <c r="B27" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="8">
         <v>0</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="8">
         <v>0</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="8">
         <v>0</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="8">
         <v>0</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="8">
         <v>0</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="8">
         <v>30</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O27" s="8">
         <v>182</v>
       </c>
     </row>
@@ -13455,7 +13449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FDF59D-C76B-0246-8C60-63BB3A6C343C}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -13579,276 +13573,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="16">
         <v>25154</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="23">
         <v>29809</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="23">
         <v>39598</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="23">
         <v>40358</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="23">
         <v>39940</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="23">
         <v>38974</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="23">
         <v>38661</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="23">
         <v>35556</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="23">
         <v>34212</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="26">
         <v>25698</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="27">
         <v>1070</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="29">
         <v>6527</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="29">
         <v>1702</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="29">
         <v>1427</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="29">
         <v>1712</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="29">
         <v>100</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="29">
         <v>1733</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="29">
         <v>243</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="29">
         <v>-16</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="28">
         <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="31">
         <v>30990</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="32">
         <v>35119</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="32">
         <v>46542</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="32">
         <v>48017</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="32">
         <v>46854</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="32">
         <v>45998</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="32">
         <v>44294</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="32">
         <v>41863</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="32">
         <v>35410</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="33">
         <v>31856</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="37">
         <f>B4-B2</f>
         <v>5836</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="37">
         <f t="shared" ref="C5:K5" si="0">C4-C2</f>
         <v>5310</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="37">
         <f t="shared" si="0"/>
         <v>6944</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="37">
         <f t="shared" si="0"/>
         <v>7659</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="37">
         <f t="shared" si="0"/>
         <v>6914</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="37">
         <f t="shared" si="0"/>
         <v>7024</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="37">
         <f t="shared" si="0"/>
         <v>5633</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="37">
         <f t="shared" si="0"/>
         <v>6307</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="37">
         <f t="shared" si="0"/>
         <v>1198</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="37">
         <f t="shared" si="0"/>
         <v>6158</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="35">
         <f>(B3/B4)</f>
         <v>3.452726686027751E-2</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="35">
         <f t="shared" ref="C6:K6" si="1">(C3/C4)</f>
         <v>0.1858538113272018</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="35">
         <f t="shared" si="1"/>
         <v>3.6569120364402047E-2</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="35">
         <f t="shared" si="1"/>
         <v>2.9718641314534437E-2</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="35">
         <f t="shared" si="1"/>
         <v>3.6539036154864049E-2</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="35">
         <f t="shared" si="1"/>
         <v>2.174007565546328E-3</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="35">
         <f t="shared" si="1"/>
         <v>3.9124937914841743E-2</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="35">
         <f t="shared" si="1"/>
         <v>5.8046484962855031E-3</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="35">
         <f t="shared" si="1"/>
         <v>-4.5184975995481505E-4</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="35">
         <f t="shared" si="1"/>
         <v>1.7861627322953291E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="36">
         <f>B2/B4</f>
         <v>0.8116811874798322</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="36">
         <f t="shared" ref="C7:K7" si="2">C2/C4</f>
         <v>0.8487997949827728</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="36">
         <f t="shared" si="2"/>
         <v>0.85080142666838554</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="36">
         <f t="shared" si="2"/>
         <v>0.84049399171126893</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="36">
         <f t="shared" si="2"/>
         <v>0.8524352243138259</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="36">
         <f t="shared" si="2"/>
         <v>0.84729770859602593</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="36">
         <f t="shared" si="2"/>
         <v>0.87282701946087504</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="36">
         <f t="shared" si="2"/>
         <v>0.84934190096266393</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="36">
         <f t="shared" si="2"/>
         <v>0.96616774922338322</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="36">
         <f t="shared" si="2"/>
         <v>0.80669261677548976</v>
       </c>
@@ -13860,329 +13854,298 @@
       <c r="B8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="34">
         <f>(C4-B4)/B4</f>
         <v>0.13323652791222976</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="34">
         <f t="shared" ref="D8:K8" si="3">(D4-C4)/C4</f>
         <v>0.32526552578376378</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="34">
         <f t="shared" si="3"/>
         <v>3.1691805251170983E-2</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="34">
         <f t="shared" si="3"/>
         <v>-2.4220588541558199E-2</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="34">
         <f t="shared" si="3"/>
         <v>-1.8269518077432025E-2</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="34">
         <f t="shared" si="3"/>
         <v>-3.7045088916909434E-2</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="34">
         <f t="shared" si="3"/>
         <v>-5.4883279902469863E-2</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="34">
         <f t="shared" si="3"/>
         <v>-0.15414566562358167</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="34">
         <f t="shared" si="3"/>
         <v>-0.10036712792996329</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="26" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="16">
         <v>48671</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="23">
         <v>72921</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="23">
         <v>79974</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="23">
         <v>86174</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="23">
         <v>90055</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="23">
         <v>92023</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="23">
         <v>89996</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="23">
         <v>87270</v>
       </c>
-      <c r="J26" s="32">
+      <c r="J26" s="23">
         <v>87896</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="26">
         <v>83216</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="27">
         <v>23325</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="29">
         <v>41604</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="29">
         <v>48053</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="29">
         <v>53006</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="29">
         <v>56615</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="29">
         <v>61462</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="29">
         <v>64232</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="29">
         <v>64050</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="29">
         <v>68919</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="28">
         <v>64158</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B28" s="31">
         <v>25346</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="32">
         <v>31317</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="32">
         <v>31921</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="32">
         <v>33168</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="32">
         <v>33440</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="32">
         <v>30561</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="32">
         <v>25764</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="32">
         <v>23220</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="32">
         <v>18977</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="33">
         <v>19058</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
+      <c r="A29" s="39"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
+      <c r="A30" s="39"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
+      <c r="A31" s="39"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
+      <c r="A32" s="39"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="18"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J38" s="22" t="s">
+      <c r="J38" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="22" t="s">
+      <c r="K38" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="L38" s="22" t="s">
+      <c r="L38" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="M38" s="22" t="s">
+      <c r="M38" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="N38" s="22" t="s">
+      <c r="N38" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="O38" s="22" t="s">
+      <c r="O38" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="22" t="s">
+      <c r="P38" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Q38" s="23" t="s">
+      <c r="Q38" s="22" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B6:K6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B7:K7">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -14203,26 +14166,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:K6">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C8:K8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -14236,16 +14179,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517E6562-DA60-BD4E-9453-4185E6E98FC4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>